--- a/Data/stata_data.xlsx
+++ b/Data/stata_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z129"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,45 +525,75 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>one_m_diff_sp500</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>three_m_diff_sp500</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>six_m_diff_sp500</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>one_y_diff_sp500</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>two_y_diff_sp500</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>three_y_diff_sp500</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>Date_End(t=1)</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Date_End(t=12)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Date_End(t=24)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Date_End(t=3)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Date_End(t=36)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Date_End(t=6)</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Sharing Firm Introduced</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Relatedness with Sharing Firm</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Exchange</t>
         </is>
@@ -621,35 +651,53 @@
       <c r="Q2" t="n">
         <v>-10.7420151755779</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="R2" t="n">
+        <v>1.219050324291043</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-8.394150159242503</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-3.592283354501265</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-12.96888038589136</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-1.609884800049087</v>
+      </c>
+      <c r="W2" t="n">
+        <v>5.121565478190326</v>
+      </c>
+      <c r="X2" s="2" t="n">
         <v>39691</v>
       </c>
-      <c r="S2" s="2" t="n">
+      <c r="Y2" s="2" t="n">
         <v>39691</v>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="Z2" s="2" t="n">
         <v>39691</v>
       </c>
-      <c r="U2" s="2" t="n">
+      <c r="AA2" s="2" t="n">
         <v>39691</v>
       </c>
-      <c r="V2" s="2" t="n">
+      <c r="AB2" s="2" t="n">
         <v>39691</v>
       </c>
-      <c r="W2" s="2" t="n">
+      <c r="AC2" s="2" t="n">
         <v>39691</v>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -707,35 +755,53 @@
       <c r="Q3" t="n">
         <v>4.927593535313593</v>
       </c>
-      <c r="R3" s="2" t="n">
+      <c r="R3" t="n">
+        <v>-9.079145327128305</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-30.13571556636499</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-42.69778536516919</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-20.43918523888589</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-18.20194413912989</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-4.98429254071076</v>
+      </c>
+      <c r="X3" s="2" t="n">
         <v>39721</v>
       </c>
-      <c r="S3" s="2" t="n">
+      <c r="Y3" s="2" t="n">
         <v>40056</v>
       </c>
-      <c r="T3" s="2" t="n">
+      <c r="Z3" s="2" t="n">
         <v>40421</v>
       </c>
-      <c r="U3" s="2" t="n">
+      <c r="AA3" s="2" t="n">
         <v>39782</v>
       </c>
-      <c r="V3" s="2" t="n">
+      <c r="AB3" s="2" t="n">
         <v>40786</v>
       </c>
-      <c r="W3" s="2" t="n">
+      <c r="AC3" s="2" t="n">
         <v>39872</v>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -793,35 +859,53 @@
       <c r="Q4" t="n">
         <v>14.70365699873896</v>
       </c>
-      <c r="R4" s="2" t="n">
+      <c r="R4" t="n">
+        <v>1.219050324291043</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-8.394150159242503</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-3.592283354501265</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-12.96888038589136</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-1.609884800049087</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5.121565478190326</v>
+      </c>
+      <c r="X4" s="2" t="n">
         <v>39691</v>
       </c>
-      <c r="S4" s="2" t="n">
+      <c r="Y4" s="2" t="n">
         <v>39691</v>
       </c>
-      <c r="T4" s="2" t="n">
+      <c r="Z4" s="2" t="n">
         <v>39691</v>
       </c>
-      <c r="U4" s="2" t="n">
+      <c r="AA4" s="2" t="n">
         <v>39691</v>
       </c>
-      <c r="V4" s="2" t="n">
+      <c r="AB4" s="2" t="n">
         <v>39691</v>
       </c>
-      <c r="W4" s="2" t="n">
+      <c r="AC4" s="2" t="n">
         <v>39691</v>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -879,35 +963,53 @@
       <c r="Q5" t="n">
         <v>-20.47053649956024</v>
       </c>
-      <c r="R5" s="2" t="n">
+      <c r="R5" t="n">
+        <v>-9.079145327128305</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-30.13571556636499</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-42.69778536516919</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-20.43918523888589</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-18.20194413912989</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-4.98429254071076</v>
+      </c>
+      <c r="X5" s="2" t="n">
         <v>39721</v>
       </c>
-      <c r="S5" s="2" t="n">
+      <c r="Y5" s="2" t="n">
         <v>40056</v>
       </c>
-      <c r="T5" s="2" t="n">
+      <c r="Z5" s="2" t="n">
         <v>40421</v>
       </c>
-      <c r="U5" s="2" t="n">
+      <c r="AA5" s="2" t="n">
         <v>39782</v>
       </c>
-      <c r="V5" s="2" t="n">
+      <c r="AB5" s="2" t="n">
         <v>40786</v>
       </c>
-      <c r="W5" s="2" t="n">
+      <c r="AC5" s="2" t="n">
         <v>39872</v>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -965,35 +1067,53 @@
       <c r="Q6" t="n">
         <v>-20.29833333333334</v>
       </c>
-      <c r="R6" s="2" t="n">
+      <c r="R6" t="n">
+        <v>2.513437961580246</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.959297023615496</v>
+      </c>
+      <c r="T6" t="n">
+        <v>6.389196219690388</v>
+      </c>
+      <c r="U6" t="n">
+        <v>16.19217163914089</v>
+      </c>
+      <c r="V6" t="n">
+        <v>31.21461643828482</v>
+      </c>
+      <c r="W6" t="n">
+        <v>27.73780732042449</v>
+      </c>
+      <c r="X6" s="2" t="n">
         <v>43008</v>
       </c>
-      <c r="S6" s="2" t="n">
+      <c r="Y6" s="2" t="n">
         <v>43008</v>
       </c>
-      <c r="T6" s="2" t="n">
+      <c r="Z6" s="2" t="n">
         <v>43008</v>
       </c>
-      <c r="U6" s="2" t="n">
+      <c r="AA6" s="2" t="n">
         <v>43008</v>
       </c>
-      <c r="V6" s="2" t="n">
+      <c r="AB6" s="2" t="n">
         <v>43008</v>
       </c>
-      <c r="W6" s="2" t="n">
+      <c r="AC6" s="2" t="n">
         <v>43008</v>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -1051,35 +1171,53 @@
       <c r="Q7" t="n">
         <v>-62.34917713975032</v>
       </c>
-      <c r="R7" s="2" t="n">
+      <c r="R7" t="n">
+        <v>2.122364410008883</v>
+      </c>
+      <c r="S7" t="n">
+        <v>6.12258668868284</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4.823050298488496</v>
+      </c>
+      <c r="U7" t="n">
+        <v>15.66350184173758</v>
+      </c>
+      <c r="V7" t="n">
+        <v>18.15461069477961</v>
+      </c>
+      <c r="W7" t="n">
+        <v>33.48628223040772</v>
+      </c>
+      <c r="X7" s="2" t="n">
         <v>43038</v>
       </c>
-      <c r="S7" s="2" t="n">
+      <c r="Y7" s="2" t="n">
         <v>43373</v>
       </c>
-      <c r="T7" s="2" t="n">
+      <c r="Z7" s="2" t="n">
         <v>43738</v>
       </c>
-      <c r="U7" s="2" t="n">
+      <c r="AA7" s="2" t="n">
         <v>43099</v>
       </c>
-      <c r="V7" s="2" t="n">
+      <c r="AB7" s="2" t="n">
         <v>44104</v>
       </c>
-      <c r="W7" s="2" t="n">
+      <c r="AC7" s="2" t="n">
         <v>43189</v>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -1137,35 +1275,53 @@
       <c r="Q8" t="n">
         <v>71.72701949860725</v>
       </c>
-      <c r="R8" s="2" t="n">
+      <c r="R8" t="n">
+        <v>2.513437961580246</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.959297023615496</v>
+      </c>
+      <c r="T8" t="n">
+        <v>6.389196219690388</v>
+      </c>
+      <c r="U8" t="n">
+        <v>16.19217163914089</v>
+      </c>
+      <c r="V8" t="n">
+        <v>31.21461643828482</v>
+      </c>
+      <c r="W8" t="n">
+        <v>27.73780732042449</v>
+      </c>
+      <c r="X8" s="2" t="n">
         <v>43008</v>
       </c>
-      <c r="S8" s="2" t="n">
+      <c r="Y8" s="2" t="n">
         <v>43008</v>
       </c>
-      <c r="T8" s="2" t="n">
+      <c r="Z8" s="2" t="n">
         <v>43008</v>
       </c>
-      <c r="U8" s="2" t="n">
+      <c r="AA8" s="2" t="n">
         <v>43008</v>
       </c>
-      <c r="V8" s="2" t="n">
+      <c r="AB8" s="2" t="n">
         <v>43008</v>
       </c>
-      <c r="W8" s="2" t="n">
+      <c r="AC8" s="2" t="n">
         <v>43008</v>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -1223,35 +1379,53 @@
       <c r="Q9" t="n">
         <v>2.708840227088405</v>
       </c>
-      <c r="R9" s="2" t="n">
+      <c r="R9" t="n">
+        <v>2.122364410008883</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6.12258668868284</v>
+      </c>
+      <c r="T9" t="n">
+        <v>4.823050298488496</v>
+      </c>
+      <c r="U9" t="n">
+        <v>15.66350184173758</v>
+      </c>
+      <c r="V9" t="n">
+        <v>18.15461069477961</v>
+      </c>
+      <c r="W9" t="n">
+        <v>33.48628223040772</v>
+      </c>
+      <c r="X9" s="2" t="n">
         <v>43038</v>
       </c>
-      <c r="S9" s="2" t="n">
+      <c r="Y9" s="2" t="n">
         <v>43373</v>
       </c>
-      <c r="T9" s="2" t="n">
+      <c r="Z9" s="2" t="n">
         <v>43738</v>
       </c>
-      <c r="U9" s="2" t="n">
+      <c r="AA9" s="2" t="n">
         <v>43099</v>
       </c>
-      <c r="V9" s="2" t="n">
+      <c r="AB9" s="2" t="n">
         <v>44104</v>
       </c>
-      <c r="W9" s="2" t="n">
+      <c r="AC9" s="2" t="n">
         <v>43189</v>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -1309,35 +1483,53 @@
       <c r="Q10" t="n">
         <v>148.8396624472574</v>
       </c>
-      <c r="R10" s="2" t="n">
+      <c r="R10" t="n">
+        <v>-1.978940354140781</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.380883333816674</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.019378929974033</v>
+      </c>
+      <c r="U10" t="n">
+        <v>12.67533711002953</v>
+      </c>
+      <c r="V10" t="n">
+        <v>19.34486080827545</v>
+      </c>
+      <c r="W10" t="n">
+        <v>36.28257093225246</v>
+      </c>
+      <c r="X10" s="2" t="n">
         <v>41213</v>
       </c>
-      <c r="S10" s="2" t="n">
+      <c r="Y10" s="2" t="n">
         <v>41213</v>
       </c>
-      <c r="T10" s="2" t="n">
+      <c r="Z10" s="2" t="n">
         <v>41213</v>
       </c>
-      <c r="U10" s="2" t="n">
+      <c r="AA10" s="2" t="n">
         <v>41213</v>
       </c>
-      <c r="V10" s="2" t="n">
+      <c r="AB10" s="2" t="n">
         <v>41213</v>
       </c>
-      <c r="W10" s="2" t="n">
+      <c r="AC10" s="2" t="n">
         <v>41213</v>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -1395,35 +1587,53 @@
       <c r="Q11" t="n">
         <v>128.1051292920729</v>
       </c>
-      <c r="R11" s="2" t="n">
+      <c r="R11" t="n">
+        <v>0.2846702923181496</v>
+      </c>
+      <c r="S11" t="n">
+        <v>6.086420802175377</v>
+      </c>
+      <c r="T11" t="n">
+        <v>13.1295320643553</v>
+      </c>
+      <c r="U11" t="n">
+        <v>24.38675504192159</v>
+      </c>
+      <c r="V11" t="n">
+        <v>42.90519487876727</v>
+      </c>
+      <c r="W11" t="n">
+        <v>47.24677090414684</v>
+      </c>
+      <c r="X11" s="2" t="n">
         <v>41243</v>
       </c>
-      <c r="S11" s="2" t="n">
+      <c r="Y11" s="2" t="n">
         <v>41578</v>
       </c>
-      <c r="T11" s="2" t="n">
+      <c r="Z11" s="2" t="n">
         <v>41943</v>
       </c>
-      <c r="U11" s="2" t="n">
+      <c r="AA11" s="2" t="n">
         <v>41305</v>
       </c>
-      <c r="V11" s="2" t="n">
+      <c r="AB11" s="2" t="n">
         <v>42308</v>
       </c>
-      <c r="W11" s="2" t="n">
+      <c r="AC11" s="2" t="n">
         <v>41394</v>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -1481,35 +1691,53 @@
       <c r="Q12" t="n">
         <v>-80</v>
       </c>
-      <c r="R12" s="2" t="n">
+      <c r="R12" t="n">
+        <v>-1.978940354140781</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.380883333816674</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.019378929974033</v>
+      </c>
+      <c r="U12" t="n">
+        <v>12.67533711002953</v>
+      </c>
+      <c r="V12" t="n">
+        <v>19.34486080827545</v>
+      </c>
+      <c r="W12" t="n">
+        <v>36.28257093225246</v>
+      </c>
+      <c r="X12" s="2" t="n">
         <v>41213</v>
       </c>
-      <c r="S12" s="2" t="n">
+      <c r="Y12" s="2" t="n">
         <v>41213</v>
       </c>
-      <c r="T12" s="2" t="n">
+      <c r="Z12" s="2" t="n">
         <v>41213</v>
       </c>
-      <c r="U12" s="2" t="n">
+      <c r="AA12" s="2" t="n">
         <v>41213</v>
       </c>
-      <c r="V12" s="2" t="n">
+      <c r="AB12" s="2" t="n">
         <v>41213</v>
       </c>
-      <c r="W12" s="2" t="n">
+      <c r="AC12" s="2" t="n">
         <v>41213</v>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -1567,35 +1795,53 @@
       <c r="Q13" t="n">
         <v>-23.03030303030303</v>
       </c>
-      <c r="R13" s="2" t="n">
+      <c r="R13" t="n">
+        <v>0.2846702923181496</v>
+      </c>
+      <c r="S13" t="n">
+        <v>6.086420802175377</v>
+      </c>
+      <c r="T13" t="n">
+        <v>13.1295320643553</v>
+      </c>
+      <c r="U13" t="n">
+        <v>24.38675504192159</v>
+      </c>
+      <c r="V13" t="n">
+        <v>42.90519487876727</v>
+      </c>
+      <c r="W13" t="n">
+        <v>47.24677090414684</v>
+      </c>
+      <c r="X13" s="2" t="n">
         <v>41243</v>
       </c>
-      <c r="S13" s="2" t="n">
+      <c r="Y13" s="2" t="n">
         <v>41578</v>
       </c>
-      <c r="T13" s="2" t="n">
+      <c r="Z13" s="2" t="n">
         <v>41943</v>
       </c>
-      <c r="U13" s="2" t="n">
+      <c r="AA13" s="2" t="n">
         <v>41305</v>
       </c>
-      <c r="V13" s="2" t="n">
+      <c r="AB13" s="2" t="n">
         <v>42308</v>
       </c>
-      <c r="W13" s="2" t="n">
+      <c r="AC13" s="2" t="n">
         <v>41394</v>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -1653,35 +1899,53 @@
       <c r="Q14" t="n">
         <v>21.40191897654583</v>
       </c>
-      <c r="R14" s="2" t="n">
+      <c r="R14" t="n">
+        <v>1.97633616564684</v>
+      </c>
+      <c r="S14" t="n">
+        <v>7.345477856723116</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.994845058871761</v>
+      </c>
+      <c r="U14" t="n">
+        <v>15.39843628219116</v>
+      </c>
+      <c r="V14" t="n">
+        <v>34.04553381681644</v>
+      </c>
+      <c r="W14" t="n">
+        <v>37.81487904529555</v>
+      </c>
+      <c r="X14" s="2" t="n">
         <v>41152</v>
       </c>
-      <c r="S14" s="2" t="n">
+      <c r="Y14" s="2" t="n">
         <v>41152</v>
       </c>
-      <c r="T14" s="2" t="n">
+      <c r="Z14" s="2" t="n">
         <v>41152</v>
       </c>
-      <c r="U14" s="2" t="n">
+      <c r="AA14" s="2" t="n">
         <v>41152</v>
       </c>
-      <c r="V14" s="2" t="n">
+      <c r="AB14" s="2" t="n">
         <v>41152</v>
       </c>
-      <c r="W14" s="2" t="n">
+      <c r="AC14" s="2" t="n">
         <v>41152</v>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -1739,35 +2003,53 @@
       <c r="Q15" t="n">
         <v>124.807903402854</v>
       </c>
-      <c r="R15" s="2" t="n">
+      <c r="R15" t="n">
+        <v>2.423609037523649</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.6825065051401369</v>
+      </c>
+      <c r="T15" t="n">
+        <v>7.685307625588317</v>
+      </c>
+      <c r="U15" t="n">
+        <v>16.09506746861182</v>
+      </c>
+      <c r="V15" t="n">
+        <v>42.42844345860172</v>
+      </c>
+      <c r="W15" t="n">
+        <v>40.21100826117249</v>
+      </c>
+      <c r="X15" s="2" t="n">
         <v>41182</v>
       </c>
-      <c r="S15" s="2" t="n">
+      <c r="Y15" s="2" t="n">
         <v>41517</v>
       </c>
-      <c r="T15" s="2" t="n">
+      <c r="Z15" s="2" t="n">
         <v>41882</v>
       </c>
-      <c r="U15" s="2" t="n">
+      <c r="AA15" s="2" t="n">
         <v>41243</v>
       </c>
-      <c r="V15" s="2" t="n">
+      <c r="AB15" s="2" t="n">
         <v>42247</v>
       </c>
-      <c r="W15" s="2" t="n">
+      <c r="AC15" s="2" t="n">
         <v>41333</v>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -1825,35 +2107,53 @@
       <c r="Q16" t="n">
         <v>79.40332759609868</v>
       </c>
-      <c r="R16" s="2" t="n">
+      <c r="R16" t="n">
+        <v>1.97633616564684</v>
+      </c>
+      <c r="S16" t="n">
+        <v>7.345477856723116</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.994845058871761</v>
+      </c>
+      <c r="U16" t="n">
+        <v>15.39843628219116</v>
+      </c>
+      <c r="V16" t="n">
+        <v>34.04553381681644</v>
+      </c>
+      <c r="W16" t="n">
+        <v>37.81487904529555</v>
+      </c>
+      <c r="X16" s="2" t="n">
         <v>41152</v>
       </c>
-      <c r="S16" s="2" t="n">
+      <c r="Y16" s="2" t="n">
         <v>41152</v>
       </c>
-      <c r="T16" s="2" t="n">
+      <c r="Z16" s="2" t="n">
         <v>41152</v>
       </c>
-      <c r="U16" s="2" t="n">
+      <c r="AA16" s="2" t="n">
         <v>41152</v>
       </c>
-      <c r="V16" s="2" t="n">
+      <c r="AB16" s="2" t="n">
         <v>41152</v>
       </c>
-      <c r="W16" s="2" t="n">
+      <c r="AC16" s="2" t="n">
         <v>41152</v>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -1911,35 +2211,53 @@
       <c r="Q17" t="n">
         <v>33.80236648544933</v>
       </c>
-      <c r="R17" s="2" t="n">
+      <c r="R17" t="n">
+        <v>2.423609037523649</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.6825065051401369</v>
+      </c>
+      <c r="T17" t="n">
+        <v>7.685307625588317</v>
+      </c>
+      <c r="U17" t="n">
+        <v>16.09506746861182</v>
+      </c>
+      <c r="V17" t="n">
+        <v>42.42844345860172</v>
+      </c>
+      <c r="W17" t="n">
+        <v>40.21100826117249</v>
+      </c>
+      <c r="X17" s="2" t="n">
         <v>41182</v>
       </c>
-      <c r="S17" s="2" t="n">
+      <c r="Y17" s="2" t="n">
         <v>41517</v>
       </c>
-      <c r="T17" s="2" t="n">
+      <c r="Z17" s="2" t="n">
         <v>41882</v>
       </c>
-      <c r="U17" s="2" t="n">
+      <c r="AA17" s="2" t="n">
         <v>41243</v>
       </c>
-      <c r="V17" s="2" t="n">
+      <c r="AB17" s="2" t="n">
         <v>42247</v>
       </c>
-      <c r="W17" s="2" t="n">
+      <c r="AC17" s="2" t="n">
         <v>41333</v>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -1997,35 +2315,53 @@
       <c r="Q18" t="n">
         <v>312.1238938053097</v>
       </c>
-      <c r="R18" s="2" t="n">
+      <c r="R18" t="n">
+        <v>5.042806358199106</v>
+      </c>
+      <c r="S18" t="n">
+        <v>6.086420802175377</v>
+      </c>
+      <c r="T18" t="n">
+        <v>8.612214714496996</v>
+      </c>
+      <c r="U18" t="n">
+        <v>14.14954168285824</v>
+      </c>
+      <c r="V18" t="n">
+        <v>16.48290983734022</v>
+      </c>
+      <c r="W18" t="n">
+        <v>39.50571298201832</v>
+      </c>
+      <c r="X18" s="2" t="n">
         <v>41305</v>
       </c>
-      <c r="S18" s="2" t="n">
+      <c r="Y18" s="2" t="n">
         <v>41305</v>
       </c>
-      <c r="T18" s="2" t="n">
+      <c r="Z18" s="2" t="n">
         <v>41305</v>
       </c>
-      <c r="U18" s="2" t="n">
+      <c r="AA18" s="2" t="n">
         <v>41305</v>
       </c>
-      <c r="V18" s="2" t="n">
+      <c r="AB18" s="2" t="n">
         <v>41305</v>
       </c>
-      <c r="W18" s="2" t="n">
+      <c r="AC18" s="2" t="n">
         <v>41305</v>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="AD18" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="AE18" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
+      <c r="AF18" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -2083,35 +2419,53 @@
       <c r="Q19" t="n">
         <v>144.6424736955122</v>
       </c>
-      <c r="R19" s="2" t="n">
+      <c r="R19" t="n">
+        <v>1.106060302648014</v>
+      </c>
+      <c r="S19" t="n">
+        <v>6.639031846793629</v>
+      </c>
+      <c r="T19" t="n">
+        <v>12.52377996275308</v>
+      </c>
+      <c r="U19" t="n">
+        <v>18.98925980068219</v>
+      </c>
+      <c r="V19" t="n">
+        <v>33.16712390945926</v>
+      </c>
+      <c r="W19" t="n">
+        <v>29.51251910740868</v>
+      </c>
+      <c r="X19" s="2" t="n">
         <v>41333</v>
       </c>
-      <c r="S19" s="2" t="n">
+      <c r="Y19" s="2" t="n">
         <v>41670</v>
       </c>
-      <c r="T19" s="2" t="n">
+      <c r="Z19" s="2" t="n">
         <v>42035</v>
       </c>
-      <c r="U19" s="2" t="n">
+      <c r="AA19" s="2" t="n">
         <v>41394</v>
       </c>
-      <c r="V19" s="2" t="n">
+      <c r="AB19" s="2" t="n">
         <v>42400</v>
       </c>
-      <c r="W19" s="2" t="n">
+      <c r="AC19" s="2" t="n">
         <v>41486</v>
       </c>
-      <c r="X19" t="inlineStr">
+      <c r="AD19" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="AE19" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
+      <c r="AF19" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -2169,35 +2523,53 @@
       <c r="Q20" t="n">
         <v>41.96472317491426</v>
       </c>
-      <c r="R20" s="2" t="n">
+      <c r="R20" t="n">
+        <v>5.042806358199106</v>
+      </c>
+      <c r="S20" t="n">
+        <v>6.086420802175377</v>
+      </c>
+      <c r="T20" t="n">
+        <v>8.612214714496996</v>
+      </c>
+      <c r="U20" t="n">
+        <v>14.14954168285824</v>
+      </c>
+      <c r="V20" t="n">
+        <v>16.48290983734022</v>
+      </c>
+      <c r="W20" t="n">
+        <v>39.50571298201832</v>
+      </c>
+      <c r="X20" s="2" t="n">
         <v>41305</v>
       </c>
-      <c r="S20" s="2" t="n">
+      <c r="Y20" s="2" t="n">
         <v>41305</v>
       </c>
-      <c r="T20" s="2" t="n">
+      <c r="Z20" s="2" t="n">
         <v>41305</v>
       </c>
-      <c r="U20" s="2" t="n">
+      <c r="AA20" s="2" t="n">
         <v>41305</v>
       </c>
-      <c r="V20" s="2" t="n">
+      <c r="AB20" s="2" t="n">
         <v>41305</v>
       </c>
-      <c r="W20" s="2" t="n">
+      <c r="AC20" s="2" t="n">
         <v>41305</v>
       </c>
-      <c r="X20" t="inlineStr">
+      <c r="AD20" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr">
+      <c r="AE20" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
+      <c r="AF20" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -2255,35 +2627,53 @@
       <c r="Q21" t="n">
         <v>20.57808455565142</v>
       </c>
-      <c r="R21" s="2" t="n">
+      <c r="R21" t="n">
+        <v>1.106060302648014</v>
+      </c>
+      <c r="S21" t="n">
+        <v>6.639031846793629</v>
+      </c>
+      <c r="T21" t="n">
+        <v>12.52377996275308</v>
+      </c>
+      <c r="U21" t="n">
+        <v>18.98925980068219</v>
+      </c>
+      <c r="V21" t="n">
+        <v>33.16712390945926</v>
+      </c>
+      <c r="W21" t="n">
+        <v>29.51251910740868</v>
+      </c>
+      <c r="X21" s="2" t="n">
         <v>41333</v>
       </c>
-      <c r="S21" s="2" t="n">
+      <c r="Y21" s="2" t="n">
         <v>41670</v>
       </c>
-      <c r="T21" s="2" t="n">
+      <c r="Z21" s="2" t="n">
         <v>42035</v>
       </c>
-      <c r="U21" s="2" t="n">
+      <c r="AA21" s="2" t="n">
         <v>41394</v>
       </c>
-      <c r="V21" s="2" t="n">
+      <c r="AB21" s="2" t="n">
         <v>42400</v>
       </c>
-      <c r="W21" s="2" t="n">
+      <c r="AC21" s="2" t="n">
         <v>41486</v>
       </c>
-      <c r="X21" t="inlineStr">
+      <c r="AD21" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y21" t="inlineStr">
+      <c r="AE21" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
+      <c r="AF21" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -2341,35 +2731,53 @@
       <c r="Q22" t="n">
         <v>229.8315051453127</v>
       </c>
-      <c r="R22" s="2" t="n">
+      <c r="R22" t="n">
+        <v>4.187762960850034</v>
+      </c>
+      <c r="S22" t="n">
+        <v>7.280403854979342</v>
+      </c>
+      <c r="T22" t="n">
+        <v>16.36533789972521</v>
+      </c>
+      <c r="U22" t="n">
+        <v>26.30703062525664</v>
+      </c>
+      <c r="V22" t="n">
+        <v>27.34186041444228</v>
+      </c>
+      <c r="W22" t="n">
+        <v>39.87793202489228</v>
+      </c>
+      <c r="X22" s="2" t="n">
         <v>34972</v>
       </c>
-      <c r="S22" s="2" t="n">
+      <c r="Y22" s="2" t="n">
         <v>34972</v>
       </c>
-      <c r="T22" s="2" t="n">
+      <c r="Z22" s="2" t="n">
         <v>34972</v>
       </c>
-      <c r="U22" s="2" t="n">
+      <c r="AA22" s="2" t="n">
         <v>34972</v>
       </c>
-      <c r="V22" s="2" t="n">
+      <c r="AB22" s="2" t="n">
         <v>34972</v>
       </c>
-      <c r="W22" s="2" t="n">
+      <c r="AC22" s="2" t="n">
         <v>34972</v>
       </c>
-      <c r="X22" t="inlineStr">
+      <c r="AD22" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr">
+      <c r="AE22" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
+      <c r="AF22" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -2427,35 +2835,53 @@
       <c r="Q23" t="n">
         <v>217.1392326944835</v>
       </c>
-      <c r="R23" s="2" t="n">
+      <c r="R23" t="n">
+        <v>-0.1984907855786123</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5.393473759860369</v>
+      </c>
+      <c r="T23" t="n">
+        <v>10.45327766465325</v>
+      </c>
+      <c r="U23" t="n">
+        <v>17.6075015827929</v>
+      </c>
+      <c r="V23" t="n">
+        <v>62.09168220940779</v>
+      </c>
+      <c r="W23" t="n">
+        <v>74.02337400112935</v>
+      </c>
+      <c r="X23" s="2" t="n">
         <v>35002</v>
       </c>
-      <c r="S23" s="2" t="n">
+      <c r="Y23" s="2" t="n">
         <v>35338</v>
       </c>
-      <c r="T23" s="2" t="n">
+      <c r="Z23" s="2" t="n">
         <v>35703</v>
       </c>
-      <c r="U23" s="2" t="n">
+      <c r="AA23" s="2" t="n">
         <v>35063</v>
       </c>
-      <c r="V23" s="2" t="n">
+      <c r="AB23" s="2" t="n">
         <v>36068</v>
       </c>
-      <c r="W23" s="2" t="n">
+      <c r="AC23" s="2" t="n">
         <v>35154</v>
       </c>
-      <c r="X23" t="inlineStr">
+      <c r="AD23" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr">
+      <c r="AE23" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
+      <c r="AF23" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -2513,35 +2939,53 @@
       <c r="Q24" t="n">
         <v>-18.18181818181818</v>
       </c>
-      <c r="R24" s="2" t="n">
+      <c r="R24" t="n">
+        <v>4.187762960850034</v>
+      </c>
+      <c r="S24" t="n">
+        <v>7.280403854979342</v>
+      </c>
+      <c r="T24" t="n">
+        <v>16.36533789972521</v>
+      </c>
+      <c r="U24" t="n">
+        <v>26.30703062525664</v>
+      </c>
+      <c r="V24" t="n">
+        <v>27.34186041444228</v>
+      </c>
+      <c r="W24" t="n">
+        <v>39.87793202489228</v>
+      </c>
+      <c r="X24" s="2" t="n">
         <v>34972</v>
       </c>
-      <c r="S24" s="2" t="n">
+      <c r="Y24" s="2" t="n">
         <v>34972</v>
       </c>
-      <c r="T24" s="2" t="n">
+      <c r="Z24" s="2" t="n">
         <v>34972</v>
       </c>
-      <c r="U24" s="2" t="n">
+      <c r="AA24" s="2" t="n">
         <v>34972</v>
       </c>
-      <c r="V24" s="2" t="n">
+      <c r="AB24" s="2" t="n">
         <v>34972</v>
       </c>
-      <c r="W24" s="2" t="n">
+      <c r="AC24" s="2" t="n">
         <v>34972</v>
       </c>
-      <c r="X24" t="inlineStr">
+      <c r="AD24" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y24" t="inlineStr">
+      <c r="AE24" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
+      <c r="AF24" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -2599,35 +3043,53 @@
       <c r="Q25" t="n">
         <v>-9.027777777777777</v>
       </c>
-      <c r="R25" s="2" t="n">
+      <c r="R25" t="n">
+        <v>-0.1984907855786123</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5.393473759860369</v>
+      </c>
+      <c r="T25" t="n">
+        <v>10.45327766465325</v>
+      </c>
+      <c r="U25" t="n">
+        <v>17.6075015827929</v>
+      </c>
+      <c r="V25" t="n">
+        <v>62.09168220940779</v>
+      </c>
+      <c r="W25" t="n">
+        <v>74.02337400112935</v>
+      </c>
+      <c r="X25" s="2" t="n">
         <v>35002</v>
       </c>
-      <c r="S25" s="2" t="n">
+      <c r="Y25" s="2" t="n">
         <v>35338</v>
       </c>
-      <c r="T25" s="2" t="n">
+      <c r="Z25" s="2" t="n">
         <v>35703</v>
       </c>
-      <c r="U25" s="2" t="n">
+      <c r="AA25" s="2" t="n">
         <v>35063</v>
       </c>
-      <c r="V25" s="2" t="n">
+      <c r="AB25" s="2" t="n">
         <v>36068</v>
       </c>
-      <c r="W25" s="2" t="n">
+      <c r="AC25" s="2" t="n">
         <v>35154</v>
       </c>
-      <c r="X25" t="inlineStr">
+      <c r="AD25" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y25" t="inlineStr">
+      <c r="AE25" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
+      <c r="AF25" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -2685,35 +3147,53 @@
       <c r="Q26" t="n">
         <v>200.0883002207506</v>
       </c>
-      <c r="R26" s="2" t="n">
+      <c r="R26" t="n">
+        <v>-0.6214651562421833</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.83967462608238</v>
+      </c>
+      <c r="T26" t="n">
+        <v>-1.830991718511807</v>
+      </c>
+      <c r="U26" t="n">
+        <v>4.425686336383718</v>
+      </c>
+      <c r="V26" t="n">
+        <v>22.25038481272447</v>
+      </c>
+      <c r="W26" t="n">
+        <v>20.35946292722846</v>
+      </c>
+      <c r="X26" s="2" t="n">
         <v>38533</v>
       </c>
-      <c r="S26" s="2" t="n">
+      <c r="Y26" s="2" t="n">
         <v>38533</v>
       </c>
-      <c r="T26" s="2" t="n">
+      <c r="Z26" s="2" t="n">
         <v>38533</v>
       </c>
-      <c r="U26" s="2" t="n">
+      <c r="AA26" s="2" t="n">
         <v>38533</v>
       </c>
-      <c r="V26" s="2" t="n">
+      <c r="AB26" s="2" t="n">
         <v>38533</v>
       </c>
-      <c r="W26" s="2" t="n">
+      <c r="AC26" s="2" t="n">
         <v>38533</v>
       </c>
-      <c r="X26" t="inlineStr">
+      <c r="AD26" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y26" t="inlineStr">
+      <c r="AE26" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
+      <c r="AF26" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -2771,35 +3251,53 @@
       <c r="Q27" t="n">
         <v>-10.8430189789613</v>
       </c>
-      <c r="R27" s="2" t="n">
+      <c r="R27" t="n">
+        <v>3.596820360437506</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.146063643155131</v>
+      </c>
+      <c r="T27" t="n">
+        <v>4.781210915531385</v>
+      </c>
+      <c r="U27" t="n">
+        <v>6.620331897962791</v>
+      </c>
+      <c r="V27" t="n">
+        <v>26.19089588946807</v>
+      </c>
+      <c r="W27" t="n">
+        <v>7.44294192205351</v>
+      </c>
+      <c r="X27" s="2" t="n">
         <v>38563</v>
       </c>
-      <c r="S27" s="2" t="n">
+      <c r="Y27" s="2" t="n">
         <v>38898</v>
       </c>
-      <c r="T27" s="2" t="n">
+      <c r="Z27" s="2" t="n">
         <v>39263</v>
       </c>
-      <c r="U27" s="2" t="n">
+      <c r="AA27" s="2" t="n">
         <v>38625</v>
       </c>
-      <c r="V27" s="2" t="n">
+      <c r="AB27" s="2" t="n">
         <v>39629</v>
       </c>
-      <c r="W27" s="2" t="n">
+      <c r="AC27" s="2" t="n">
         <v>38716</v>
       </c>
-      <c r="X27" t="inlineStr">
+      <c r="AD27" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y27" t="inlineStr">
+      <c r="AE27" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
+      <c r="AF27" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -2857,35 +3355,53 @@
       <c r="Q28" t="n">
         <v>23.01238513783459</v>
       </c>
-      <c r="R28" s="2" t="n">
+      <c r="R28" t="n">
+        <v>-0.6214651562421833</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.83967462608238</v>
+      </c>
+      <c r="T28" t="n">
+        <v>-1.830991718511807</v>
+      </c>
+      <c r="U28" t="n">
+        <v>4.425686336383718</v>
+      </c>
+      <c r="V28" t="n">
+        <v>22.25038481272447</v>
+      </c>
+      <c r="W28" t="n">
+        <v>20.35946292722846</v>
+      </c>
+      <c r="X28" s="2" t="n">
         <v>38533</v>
       </c>
-      <c r="S28" s="2" t="n">
+      <c r="Y28" s="2" t="n">
         <v>38533</v>
       </c>
-      <c r="T28" s="2" t="n">
+      <c r="Z28" s="2" t="n">
         <v>38533</v>
       </c>
-      <c r="U28" s="2" t="n">
+      <c r="AA28" s="2" t="n">
         <v>38533</v>
       </c>
-      <c r="V28" s="2" t="n">
+      <c r="AB28" s="2" t="n">
         <v>38533</v>
       </c>
-      <c r="W28" s="2" t="n">
+      <c r="AC28" s="2" t="n">
         <v>38533</v>
       </c>
-      <c r="X28" t="inlineStr">
+      <c r="AD28" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y28" t="inlineStr">
+      <c r="AE28" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
+      <c r="AF28" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -2943,35 +3459,53 @@
       <c r="Q29" t="n">
         <v>-22.86456641766807</v>
       </c>
-      <c r="R29" s="2" t="n">
+      <c r="R29" t="n">
+        <v>3.596820360437506</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.146063643155131</v>
+      </c>
+      <c r="T29" t="n">
+        <v>4.781210915531385</v>
+      </c>
+      <c r="U29" t="n">
+        <v>6.620331897962791</v>
+      </c>
+      <c r="V29" t="n">
+        <v>26.19089588946807</v>
+      </c>
+      <c r="W29" t="n">
+        <v>7.44294192205351</v>
+      </c>
+      <c r="X29" s="2" t="n">
         <v>38563</v>
       </c>
-      <c r="S29" s="2" t="n">
+      <c r="Y29" s="2" t="n">
         <v>38898</v>
       </c>
-      <c r="T29" s="2" t="n">
+      <c r="Z29" s="2" t="n">
         <v>39263</v>
       </c>
-      <c r="U29" s="2" t="n">
+      <c r="AA29" s="2" t="n">
         <v>38625</v>
       </c>
-      <c r="V29" s="2" t="n">
+      <c r="AB29" s="2" t="n">
         <v>39629</v>
       </c>
-      <c r="W29" s="2" t="n">
+      <c r="AC29" s="2" t="n">
         <v>38716</v>
       </c>
-      <c r="X29" t="inlineStr">
+      <c r="AD29" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y29" t="inlineStr">
+      <c r="AE29" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
+      <c r="AF29" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -3029,35 +3563,53 @@
       <c r="Q30" t="n">
         <v>3.257918552036194</v>
       </c>
-      <c r="R30" s="2" t="n">
+      <c r="R30" t="n">
+        <v>0.9540436638098406</v>
+      </c>
+      <c r="S30" t="n">
+        <v>8.196938196938197</v>
+      </c>
+      <c r="T30" t="n">
+        <v>13.58419063302944</v>
+      </c>
+      <c r="U30" t="n">
+        <v>36.11603162337278</v>
+      </c>
+      <c r="V30" t="n">
+        <v>3.452513259783329</v>
+      </c>
+      <c r="W30" t="n">
+        <v>-7.661661048115231</v>
+      </c>
+      <c r="X30" s="2" t="n">
         <v>38046</v>
       </c>
-      <c r="S30" s="2" t="n">
+      <c r="Y30" s="2" t="n">
         <v>38046</v>
       </c>
-      <c r="T30" s="2" t="n">
+      <c r="Z30" s="2" t="n">
         <v>38046</v>
       </c>
-      <c r="U30" s="2" t="n">
+      <c r="AA30" s="2" t="n">
         <v>38046</v>
       </c>
-      <c r="V30" s="2" t="n">
+      <c r="AB30" s="2" t="n">
         <v>38046</v>
       </c>
-      <c r="W30" s="2" t="n">
+      <c r="AC30" s="2" t="n">
         <v>38046</v>
       </c>
-      <c r="X30" t="inlineStr">
+      <c r="AD30" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y30" t="inlineStr">
+      <c r="AE30" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
+      <c r="AF30" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -3115,35 +3667,53 @@
       <c r="Q31" t="n">
         <v>-45.81507449605609</v>
       </c>
-      <c r="R31" s="2" t="n">
+      <c r="R31" t="n">
+        <v>-1.9625482558038</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-2.118888326025817</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-3.246458329694139</v>
+      </c>
+      <c r="U31" t="n">
+        <v>5.123412580571895</v>
+      </c>
+      <c r="V31" t="n">
+        <v>11.85389627404056</v>
+      </c>
+      <c r="W31" t="n">
+        <v>22.87281429594563</v>
+      </c>
+      <c r="X31" s="2" t="n">
         <v>38075</v>
       </c>
-      <c r="S31" s="2" t="n">
+      <c r="Y31" s="2" t="n">
         <v>38411</v>
       </c>
-      <c r="T31" s="2" t="n">
+      <c r="Z31" s="2" t="n">
         <v>38776</v>
       </c>
-      <c r="U31" s="2" t="n">
+      <c r="AA31" s="2" t="n">
         <v>38136</v>
       </c>
-      <c r="V31" s="2" t="n">
+      <c r="AB31" s="2" t="n">
         <v>39141</v>
       </c>
-      <c r="W31" s="2" t="n">
+      <c r="AC31" s="2" t="n">
         <v>38228</v>
       </c>
-      <c r="X31" t="inlineStr">
+      <c r="AD31" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y31" t="inlineStr">
+      <c r="AE31" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
+      <c r="AF31" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -3201,35 +3771,53 @@
       <c r="Q32" t="n">
         <v>32.94117647058825</v>
       </c>
-      <c r="R32" s="2" t="n">
+      <c r="R32" t="n">
+        <v>0.9540436638098406</v>
+      </c>
+      <c r="S32" t="n">
+        <v>8.196938196938197</v>
+      </c>
+      <c r="T32" t="n">
+        <v>13.58419063302944</v>
+      </c>
+      <c r="U32" t="n">
+        <v>36.11603162337278</v>
+      </c>
+      <c r="V32" t="n">
+        <v>3.452513259783329</v>
+      </c>
+      <c r="W32" t="n">
+        <v>-7.661661048115231</v>
+      </c>
+      <c r="X32" s="2" t="n">
         <v>38046</v>
       </c>
-      <c r="S32" s="2" t="n">
+      <c r="Y32" s="2" t="n">
         <v>38046</v>
       </c>
-      <c r="T32" s="2" t="n">
+      <c r="Z32" s="2" t="n">
         <v>38046</v>
       </c>
-      <c r="U32" s="2" t="n">
+      <c r="AA32" s="2" t="n">
         <v>38046</v>
       </c>
-      <c r="V32" s="2" t="n">
+      <c r="AB32" s="2" t="n">
         <v>38046</v>
       </c>
-      <c r="W32" s="2" t="n">
+      <c r="AC32" s="2" t="n">
         <v>38046</v>
       </c>
-      <c r="X32" t="inlineStr">
+      <c r="AD32" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y32" t="inlineStr">
+      <c r="AE32" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
+      <c r="AF32" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -3287,35 +3875,53 @@
       <c r="Q33" t="n">
         <v>87.25663716814158</v>
       </c>
-      <c r="R33" s="2" t="n">
+      <c r="R33" t="n">
+        <v>-1.9625482558038</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-2.118888326025817</v>
+      </c>
+      <c r="T33" t="n">
+        <v>-3.246458329694139</v>
+      </c>
+      <c r="U33" t="n">
+        <v>5.123412580571895</v>
+      </c>
+      <c r="V33" t="n">
+        <v>11.85389627404056</v>
+      </c>
+      <c r="W33" t="n">
+        <v>22.87281429594563</v>
+      </c>
+      <c r="X33" s="2" t="n">
         <v>38075</v>
       </c>
-      <c r="S33" s="2" t="n">
+      <c r="Y33" s="2" t="n">
         <v>38411</v>
       </c>
-      <c r="T33" s="2" t="n">
+      <c r="Z33" s="2" t="n">
         <v>38776</v>
       </c>
-      <c r="U33" s="2" t="n">
+      <c r="AA33" s="2" t="n">
         <v>38136</v>
       </c>
-      <c r="V33" s="2" t="n">
+      <c r="AB33" s="2" t="n">
         <v>39141</v>
       </c>
-      <c r="W33" s="2" t="n">
+      <c r="AC33" s="2" t="n">
         <v>38228</v>
       </c>
-      <c r="X33" t="inlineStr">
+      <c r="AD33" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y33" t="inlineStr">
+      <c r="AE33" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
+      <c r="AF33" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -3373,35 +3979,53 @@
       <c r="Q34" t="n">
         <v>21.32960797303916</v>
       </c>
-      <c r="R34" s="2" t="n">
+      <c r="R34" t="n">
+        <v>-2.323558425253327</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5.113877629801197</v>
+      </c>
+      <c r="T34" t="n">
+        <v>10.29995544213554</v>
+      </c>
+      <c r="U34" t="n">
+        <v>31.88235579018744</v>
+      </c>
+      <c r="V34" t="n">
+        <v>-21.94536411976323</v>
+      </c>
+      <c r="W34" t="n">
+        <v>-24.67253136368037</v>
+      </c>
+      <c r="X34" s="2" t="n">
         <v>40210</v>
       </c>
-      <c r="S34" s="2" t="n">
+      <c r="Y34" s="2" t="n">
         <v>40210</v>
       </c>
-      <c r="T34" s="2" t="n">
+      <c r="Z34" s="2" t="n">
         <v>40210</v>
       </c>
-      <c r="U34" s="2" t="n">
+      <c r="AA34" s="2" t="n">
         <v>40210</v>
       </c>
-      <c r="V34" s="2" t="n">
+      <c r="AB34" s="2" t="n">
         <v>40210</v>
       </c>
-      <c r="W34" s="2" t="n">
+      <c r="AC34" s="2" t="n">
         <v>40210</v>
       </c>
-      <c r="X34" t="inlineStr">
+      <c r="AD34" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y34" t="inlineStr">
+      <c r="AE34" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
+      <c r="AF34" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -3459,35 +4083,53 @@
       <c r="Q35" t="n">
         <v>-24.1702673187408</v>
       </c>
-      <c r="R35" s="2" t="n">
+      <c r="R35" t="n">
+        <v>2.434836897143747</v>
+      </c>
+      <c r="S35" t="n">
+        <v>8.951606239499077</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.139378804432638</v>
+      </c>
+      <c r="U35" t="n">
+        <v>20.05159797647792</v>
+      </c>
+      <c r="V35" t="n">
+        <v>21.5664851862393</v>
+      </c>
+      <c r="W35" t="n">
+        <v>38.92617449664429</v>
+      </c>
+      <c r="X35" s="2" t="n">
         <v>40238</v>
       </c>
-      <c r="S35" s="2" t="n">
+      <c r="Y35" s="2" t="n">
         <v>40575</v>
       </c>
-      <c r="T35" s="2" t="n">
+      <c r="Z35" s="2" t="n">
         <v>40940</v>
       </c>
-      <c r="U35" s="2" t="n">
+      <c r="AA35" s="2" t="n">
         <v>40299</v>
       </c>
-      <c r="V35" s="2" t="n">
+      <c r="AB35" s="2" t="n">
         <v>41306</v>
       </c>
-      <c r="W35" s="2" t="n">
+      <c r="AC35" s="2" t="n">
         <v>40391</v>
       </c>
-      <c r="X35" t="inlineStr">
+      <c r="AD35" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y35" t="inlineStr">
+      <c r="AE35" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
+      <c r="AF35" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -3545,35 +4187,53 @@
       <c r="Q36" t="n">
         <v>-13.42506507995537</v>
       </c>
-      <c r="R36" s="2" t="n">
+      <c r="R36" t="n">
+        <v>-2.323558425253327</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5.113877629801197</v>
+      </c>
+      <c r="T36" t="n">
+        <v>10.29995544213554</v>
+      </c>
+      <c r="U36" t="n">
+        <v>31.88235579018744</v>
+      </c>
+      <c r="V36" t="n">
+        <v>-21.94536411976323</v>
+      </c>
+      <c r="W36" t="n">
+        <v>-24.67253136368037</v>
+      </c>
+      <c r="X36" s="2" t="n">
         <v>40210</v>
       </c>
-      <c r="S36" s="2" t="n">
+      <c r="Y36" s="2" t="n">
         <v>40210</v>
       </c>
-      <c r="T36" s="2" t="n">
+      <c r="Z36" s="2" t="n">
         <v>40210</v>
       </c>
-      <c r="U36" s="2" t="n">
+      <c r="AA36" s="2" t="n">
         <v>40210</v>
       </c>
-      <c r="V36" s="2" t="n">
+      <c r="AB36" s="2" t="n">
         <v>40210</v>
       </c>
-      <c r="W36" s="2" t="n">
+      <c r="AC36" s="2" t="n">
         <v>40210</v>
       </c>
-      <c r="X36" t="inlineStr">
+      <c r="AD36" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y36" t="inlineStr">
+      <c r="AE36" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
+      <c r="AF36" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -3631,35 +4291,53 @@
       <c r="Q37" t="n">
         <v>50.42955326460482</v>
       </c>
-      <c r="R37" s="2" t="n">
+      <c r="R37" t="n">
+        <v>2.434836897143747</v>
+      </c>
+      <c r="S37" t="n">
+        <v>8.951606239499077</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.139378804432638</v>
+      </c>
+      <c r="U37" t="n">
+        <v>20.05159797647792</v>
+      </c>
+      <c r="V37" t="n">
+        <v>21.5664851862393</v>
+      </c>
+      <c r="W37" t="n">
+        <v>38.92617449664429</v>
+      </c>
+      <c r="X37" s="2" t="n">
         <v>40238</v>
       </c>
-      <c r="S37" s="2" t="n">
+      <c r="Y37" s="2" t="n">
         <v>40575</v>
       </c>
-      <c r="T37" s="2" t="n">
+      <c r="Z37" s="2" t="n">
         <v>40940</v>
       </c>
-      <c r="U37" s="2" t="n">
+      <c r="AA37" s="2" t="n">
         <v>40299</v>
       </c>
-      <c r="V37" s="2" t="n">
+      <c r="AB37" s="2" t="n">
         <v>41306</v>
       </c>
-      <c r="W37" s="2" t="n">
+      <c r="AC37" s="2" t="n">
         <v>40391</v>
       </c>
-      <c r="X37" t="inlineStr">
+      <c r="AD37" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y37" t="inlineStr">
+      <c r="AE37" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
+      <c r="AF37" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -3717,35 +4395,53 @@
       <c r="Q38" t="n">
         <v>-25.74781382542929</v>
       </c>
-      <c r="R38" s="2" t="n">
+      <c r="R38" t="n">
+        <v>-0.8628488866683905</v>
+      </c>
+      <c r="S38" t="n">
+        <v>-3.824463730145741</v>
+      </c>
+      <c r="T38" t="n">
+        <v>-2.327468653340873</v>
+      </c>
+      <c r="U38" t="n">
+        <v>3.529577663399841</v>
+      </c>
+      <c r="V38" t="n">
+        <v>17.62971745347635</v>
+      </c>
+      <c r="W38" t="n">
+        <v>21.15981252887978</v>
+      </c>
+      <c r="X38" s="2" t="n">
         <v>39447</v>
       </c>
-      <c r="S38" s="2" t="n">
+      <c r="Y38" s="2" t="n">
         <v>39447</v>
       </c>
-      <c r="T38" s="2" t="n">
+      <c r="Z38" s="2" t="n">
         <v>39447</v>
       </c>
-      <c r="U38" s="2" t="n">
+      <c r="AA38" s="2" t="n">
         <v>39447</v>
       </c>
-      <c r="V38" s="2" t="n">
+      <c r="AB38" s="2" t="n">
         <v>39447</v>
       </c>
-      <c r="W38" s="2" t="n">
+      <c r="AC38" s="2" t="n">
         <v>39447</v>
       </c>
-      <c r="X38" t="inlineStr">
+      <c r="AD38" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y38" t="inlineStr">
+      <c r="AE38" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
+      <c r="AF38" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -3803,35 +4499,53 @@
       <c r="Q39" t="n">
         <v>13.39082983362795</v>
       </c>
-      <c r="R39" s="2" t="n">
+      <c r="R39" t="n">
+        <v>-6.116347489716415</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-9.919910648614771</v>
+      </c>
+      <c r="T39" t="n">
+        <v>-12.8279168596257</v>
+      </c>
+      <c r="U39" t="n">
+        <v>-38.48579367457571</v>
+      </c>
+      <c r="V39" t="n">
+        <v>-24.05813288294424</v>
+      </c>
+      <c r="W39" t="n">
+        <v>-14.35070418698411</v>
+      </c>
+      <c r="X39" s="2" t="n">
         <v>39478</v>
       </c>
-      <c r="S39" s="2" t="n">
+      <c r="Y39" s="2" t="n">
         <v>39813</v>
       </c>
-      <c r="T39" s="2" t="n">
+      <c r="Z39" s="2" t="n">
         <v>40178</v>
       </c>
-      <c r="U39" s="2" t="n">
+      <c r="AA39" s="2" t="n">
         <v>39538</v>
       </c>
-      <c r="V39" s="2" t="n">
+      <c r="AB39" s="2" t="n">
         <v>40543</v>
       </c>
-      <c r="W39" s="2" t="n">
+      <c r="AC39" s="2" t="n">
         <v>39629</v>
       </c>
-      <c r="X39" t="inlineStr">
+      <c r="AD39" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y39" t="inlineStr">
+      <c r="AE39" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
+      <c r="AF39" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -3889,35 +4603,53 @@
       <c r="Q40" t="n">
         <v>-53.73406193078324</v>
       </c>
-      <c r="R40" s="2" t="n">
+      <c r="R40" t="n">
+        <v>-0.8628488866683905</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-3.824463730145741</v>
+      </c>
+      <c r="T40" t="n">
+        <v>-2.327468653340873</v>
+      </c>
+      <c r="U40" t="n">
+        <v>3.529577663399841</v>
+      </c>
+      <c r="V40" t="n">
+        <v>17.62971745347635</v>
+      </c>
+      <c r="W40" t="n">
+        <v>21.15981252887978</v>
+      </c>
+      <c r="X40" s="2" t="n">
         <v>39447</v>
       </c>
-      <c r="S40" s="2" t="n">
+      <c r="Y40" s="2" t="n">
         <v>39447</v>
       </c>
-      <c r="T40" s="2" t="n">
+      <c r="Z40" s="2" t="n">
         <v>39447</v>
       </c>
-      <c r="U40" s="2" t="n">
+      <c r="AA40" s="2" t="n">
         <v>39447</v>
       </c>
-      <c r="V40" s="2" t="n">
+      <c r="AB40" s="2" t="n">
         <v>39447</v>
       </c>
-      <c r="W40" s="2" t="n">
+      <c r="AC40" s="2" t="n">
         <v>39447</v>
       </c>
-      <c r="X40" t="inlineStr">
+      <c r="AD40" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y40" t="inlineStr">
+      <c r="AE40" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
+      <c r="AF40" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -3975,35 +4707,53 @@
       <c r="Q41" t="n">
         <v>31.69291338582678</v>
       </c>
-      <c r="R41" s="2" t="n">
+      <c r="R41" t="n">
+        <v>-6.116347489716415</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-9.919910648614771</v>
+      </c>
+      <c r="T41" t="n">
+        <v>-12.8279168596257</v>
+      </c>
+      <c r="U41" t="n">
+        <v>-38.48579367457571</v>
+      </c>
+      <c r="V41" t="n">
+        <v>-24.05813288294424</v>
+      </c>
+      <c r="W41" t="n">
+        <v>-14.35070418698411</v>
+      </c>
+      <c r="X41" s="2" t="n">
         <v>39478</v>
       </c>
-      <c r="S41" s="2" t="n">
+      <c r="Y41" s="2" t="n">
         <v>39813</v>
       </c>
-      <c r="T41" s="2" t="n">
+      <c r="Z41" s="2" t="n">
         <v>40178</v>
       </c>
-      <c r="U41" s="2" t="n">
+      <c r="AA41" s="2" t="n">
         <v>39538</v>
       </c>
-      <c r="V41" s="2" t="n">
+      <c r="AB41" s="2" t="n">
         <v>40543</v>
       </c>
-      <c r="W41" s="2" t="n">
+      <c r="AC41" s="2" t="n">
         <v>39629</v>
       </c>
-      <c r="X41" t="inlineStr">
+      <c r="AD41" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y41" t="inlineStr">
+      <c r="AE41" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
+      <c r="AF41" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -4061,35 +4811,53 @@
       <c r="Q42" t="n">
         <v>17.49611197511664</v>
       </c>
-      <c r="R42" s="2" t="n">
+      <c r="R42" t="n">
+        <v>1.777059773828737</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5.488704733794981</v>
+      </c>
+      <c r="T42" t="n">
+        <v>21.29617543401643</v>
+      </c>
+      <c r="U42" t="n">
+        <v>23.45419319125379</v>
+      </c>
+      <c r="V42" t="n">
+        <v>-24.05813288294424</v>
+      </c>
+      <c r="W42" t="n">
+        <v>-21.37770570401185</v>
+      </c>
+      <c r="X42" s="2" t="n">
         <v>40178</v>
       </c>
-      <c r="S42" s="2" t="n">
+      <c r="Y42" s="2" t="n">
         <v>40178</v>
       </c>
-      <c r="T42" s="2" t="n">
+      <c r="Z42" s="2" t="n">
         <v>40178</v>
       </c>
-      <c r="U42" s="2" t="n">
+      <c r="AA42" s="2" t="n">
         <v>40178</v>
       </c>
-      <c r="V42" s="2" t="n">
+      <c r="AB42" s="2" t="n">
         <v>40178</v>
       </c>
-      <c r="W42" s="2" t="n">
+      <c r="AC42" s="2" t="n">
         <v>40178</v>
       </c>
-      <c r="X42" t="inlineStr">
+      <c r="AD42" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y42" t="inlineStr">
+      <c r="AE42" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
+      <c r="AF42" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -4147,35 +4915,53 @@
       <c r="Q43" t="n">
         <v>62.98786675490846</v>
       </c>
-      <c r="R43" s="2" t="n">
+      <c r="R43" t="n">
+        <v>-3.697426239799123</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4.872208770513869</v>
+      </c>
+      <c r="T43" t="n">
+        <v>-7.567931127253151</v>
+      </c>
+      <c r="U43" t="n">
+        <v>12.78271007084568</v>
+      </c>
+      <c r="V43" t="n">
+        <v>12.78001972917227</v>
+      </c>
+      <c r="W43" t="n">
+        <v>27.89794637252266</v>
+      </c>
+      <c r="X43" s="2" t="n">
         <v>40209</v>
       </c>
-      <c r="S43" s="2" t="n">
+      <c r="Y43" s="2" t="n">
         <v>40543</v>
       </c>
-      <c r="T43" s="2" t="n">
+      <c r="Z43" s="2" t="n">
         <v>40908</v>
       </c>
-      <c r="U43" s="2" t="n">
+      <c r="AA43" s="2" t="n">
         <v>40268</v>
       </c>
-      <c r="V43" s="2" t="n">
+      <c r="AB43" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="W43" s="2" t="n">
+      <c r="AC43" s="2" t="n">
         <v>40359</v>
       </c>
-      <c r="X43" t="inlineStr">
+      <c r="AD43" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y43" t="inlineStr">
+      <c r="AE43" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
+      <c r="AF43" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -4233,35 +5019,53 @@
       <c r="Q44" t="n">
         <v>-8.694174138443893</v>
       </c>
-      <c r="R44" s="2" t="n">
+      <c r="R44" t="n">
+        <v>1.777059773828737</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5.488704733794981</v>
+      </c>
+      <c r="T44" t="n">
+        <v>21.29617543401643</v>
+      </c>
+      <c r="U44" t="n">
+        <v>23.45419319125379</v>
+      </c>
+      <c r="V44" t="n">
+        <v>-24.05813288294424</v>
+      </c>
+      <c r="W44" t="n">
+        <v>-21.37770570401185</v>
+      </c>
+      <c r="X44" s="2" t="n">
         <v>40178</v>
       </c>
-      <c r="S44" s="2" t="n">
+      <c r="Y44" s="2" t="n">
         <v>40178</v>
       </c>
-      <c r="T44" s="2" t="n">
+      <c r="Z44" s="2" t="n">
         <v>40178</v>
       </c>
-      <c r="U44" s="2" t="n">
+      <c r="AA44" s="2" t="n">
         <v>40178</v>
       </c>
-      <c r="V44" s="2" t="n">
+      <c r="AB44" s="2" t="n">
         <v>40178</v>
       </c>
-      <c r="W44" s="2" t="n">
+      <c r="AC44" s="2" t="n">
         <v>40178</v>
       </c>
-      <c r="X44" t="inlineStr">
+      <c r="AD44" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y44" t="inlineStr">
+      <c r="AE44" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
+      <c r="AF44" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -4319,35 +5123,53 @@
       <c r="Q45" t="n">
         <v>22.95574068041142</v>
       </c>
-      <c r="R45" s="2" t="n">
+      <c r="R45" t="n">
+        <v>-3.697426239799123</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4.872208770513869</v>
+      </c>
+      <c r="T45" t="n">
+        <v>-7.567931127253151</v>
+      </c>
+      <c r="U45" t="n">
+        <v>12.78271007084568</v>
+      </c>
+      <c r="V45" t="n">
+        <v>12.78001972917227</v>
+      </c>
+      <c r="W45" t="n">
+        <v>27.89794637252266</v>
+      </c>
+      <c r="X45" s="2" t="n">
         <v>40209</v>
       </c>
-      <c r="S45" s="2" t="n">
+      <c r="Y45" s="2" t="n">
         <v>40543</v>
       </c>
-      <c r="T45" s="2" t="n">
+      <c r="Z45" s="2" t="n">
         <v>40908</v>
       </c>
-      <c r="U45" s="2" t="n">
+      <c r="AA45" s="2" t="n">
         <v>40268</v>
       </c>
-      <c r="V45" s="2" t="n">
+      <c r="AB45" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="W45" s="2" t="n">
+      <c r="AC45" s="2" t="n">
         <v>40359</v>
       </c>
-      <c r="X45" t="inlineStr">
+      <c r="AD45" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y45" t="inlineStr">
+      <c r="AE45" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
+      <c r="AF45" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -4405,35 +5227,53 @@
       <c r="Q46" t="n">
         <v>-10.87762669962917</v>
       </c>
-      <c r="R46" s="2" t="n">
+      <c r="R46" t="n">
+        <v>2.735851807217192</v>
+      </c>
+      <c r="S46" t="n">
+        <v>14.98498890484269</v>
+      </c>
+      <c r="T46" t="n">
+        <v>34.22726753266542</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-9.369319935525908</v>
+      </c>
+      <c r="V46" t="n">
+        <v>-30.76273129196005</v>
+      </c>
+      <c r="W46" t="n">
+        <v>-20.86836096867163</v>
+      </c>
+      <c r="X46" s="2" t="n">
         <v>40086</v>
       </c>
-      <c r="S46" s="2" t="n">
+      <c r="Y46" s="2" t="n">
         <v>40086</v>
       </c>
-      <c r="T46" s="2" t="n">
+      <c r="Z46" s="2" t="n">
         <v>40086</v>
       </c>
-      <c r="U46" s="2" t="n">
+      <c r="AA46" s="2" t="n">
         <v>40086</v>
       </c>
-      <c r="V46" s="2" t="n">
+      <c r="AB46" s="2" t="n">
         <v>40086</v>
       </c>
-      <c r="W46" s="2" t="n">
+      <c r="AC46" s="2" t="n">
         <v>40086</v>
       </c>
-      <c r="X46" t="inlineStr">
+      <c r="AD46" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y46" t="inlineStr">
+      <c r="AE46" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
+      <c r="AF46" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -4491,35 +5331,53 @@
       <c r="Q47" t="n">
         <v>36.75450762829403</v>
       </c>
-      <c r="R47" s="2" t="n">
+      <c r="R47" t="n">
+        <v>-1.97525258258598</v>
+      </c>
+      <c r="S47" t="n">
+        <v>6.5595792182238</v>
+      </c>
+      <c r="T47" t="n">
+        <v>10.99159950051085</v>
+      </c>
+      <c r="U47" t="n">
+        <v>7.957770462027483</v>
+      </c>
+      <c r="V47" t="n">
+        <v>7.032580315586347</v>
+      </c>
+      <c r="W47" t="n">
+        <v>36.28769818745981</v>
+      </c>
+      <c r="X47" s="2" t="n">
         <v>40116</v>
       </c>
-      <c r="S47" s="2" t="n">
+      <c r="Y47" s="2" t="n">
         <v>40451</v>
       </c>
-      <c r="T47" s="2" t="n">
+      <c r="Z47" s="2" t="n">
         <v>40816</v>
       </c>
-      <c r="U47" s="2" t="n">
+      <c r="AA47" s="2" t="n">
         <v>40177</v>
       </c>
-      <c r="V47" s="2" t="n">
+      <c r="AB47" s="2" t="n">
         <v>41182</v>
       </c>
-      <c r="W47" s="2" t="n">
+      <c r="AC47" s="2" t="n">
         <v>40267</v>
       </c>
-      <c r="X47" t="inlineStr">
+      <c r="AD47" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y47" t="inlineStr">
+      <c r="AE47" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
+      <c r="AF47" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -4577,35 +5435,53 @@
       <c r="Q48" t="n">
         <v>-1.648572577402494</v>
       </c>
-      <c r="R48" s="2" t="n">
+      <c r="R48" t="n">
+        <v>2.735851807217192</v>
+      </c>
+      <c r="S48" t="n">
+        <v>14.98498890484269</v>
+      </c>
+      <c r="T48" t="n">
+        <v>34.22726753266542</v>
+      </c>
+      <c r="U48" t="n">
+        <v>-9.369319935525908</v>
+      </c>
+      <c r="V48" t="n">
+        <v>-30.76273129196005</v>
+      </c>
+      <c r="W48" t="n">
+        <v>-20.86836096867163</v>
+      </c>
+      <c r="X48" s="2" t="n">
         <v>40086</v>
       </c>
-      <c r="S48" s="2" t="n">
+      <c r="Y48" s="2" t="n">
         <v>40086</v>
       </c>
-      <c r="T48" s="2" t="n">
+      <c r="Z48" s="2" t="n">
         <v>40086</v>
       </c>
-      <c r="U48" s="2" t="n">
+      <c r="AA48" s="2" t="n">
         <v>40086</v>
       </c>
-      <c r="V48" s="2" t="n">
+      <c r="AB48" s="2" t="n">
         <v>40086</v>
       </c>
-      <c r="W48" s="2" t="n">
+      <c r="AC48" s="2" t="n">
         <v>40086</v>
       </c>
-      <c r="X48" t="inlineStr">
+      <c r="AD48" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y48" t="inlineStr">
+      <c r="AE48" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
+      <c r="AF48" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -4663,35 +5539,53 @@
       <c r="Q49" t="n">
         <v>-2.698282910874898</v>
       </c>
-      <c r="R49" s="2" t="n">
+      <c r="R49" t="n">
+        <v>-1.97525258258598</v>
+      </c>
+      <c r="S49" t="n">
+        <v>6.5595792182238</v>
+      </c>
+      <c r="T49" t="n">
+        <v>10.99159950051085</v>
+      </c>
+      <c r="U49" t="n">
+        <v>7.957770462027483</v>
+      </c>
+      <c r="V49" t="n">
+        <v>7.032580315586347</v>
+      </c>
+      <c r="W49" t="n">
+        <v>36.28769818745981</v>
+      </c>
+      <c r="X49" s="2" t="n">
         <v>40116</v>
       </c>
-      <c r="S49" s="2" t="n">
+      <c r="Y49" s="2" t="n">
         <v>40451</v>
       </c>
-      <c r="T49" s="2" t="n">
+      <c r="Z49" s="2" t="n">
         <v>40816</v>
       </c>
-      <c r="U49" s="2" t="n">
+      <c r="AA49" s="2" t="n">
         <v>40177</v>
       </c>
-      <c r="V49" s="2" t="n">
+      <c r="AB49" s="2" t="n">
         <v>41182</v>
       </c>
-      <c r="W49" s="2" t="n">
+      <c r="AC49" s="2" t="n">
         <v>40267</v>
       </c>
-      <c r="X49" t="inlineStr">
+      <c r="AD49" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y49" t="inlineStr">
+      <c r="AE49" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
+      <c r="AF49" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -4749,35 +5643,53 @@
       <c r="Q50" t="n">
         <v>91.78802406042239</v>
       </c>
-      <c r="R50" s="2" t="n">
+      <c r="R50" t="n">
+        <v>3.245812816275079</v>
+      </c>
+      <c r="S50" t="n">
+        <v>8.733334529598606</v>
+      </c>
+      <c r="T50" t="n">
+        <v>6.230496826899492</v>
+      </c>
+      <c r="U50" t="n">
+        <v>8.993452766386071</v>
+      </c>
+      <c r="V50" t="n">
+        <v>37.74635720942921</v>
+      </c>
+      <c r="W50" t="n">
+        <v>5.56058811232668</v>
+      </c>
+      <c r="X50" s="2" t="n">
         <v>38352</v>
       </c>
-      <c r="S50" s="2" t="n">
+      <c r="Y50" s="2" t="n">
         <v>38352</v>
       </c>
-      <c r="T50" s="2" t="n">
+      <c r="Z50" s="2" t="n">
         <v>38352</v>
       </c>
-      <c r="U50" s="2" t="n">
+      <c r="AA50" s="2" t="n">
         <v>38352</v>
       </c>
-      <c r="V50" s="2" t="n">
+      <c r="AB50" s="2" t="n">
         <v>38352</v>
       </c>
-      <c r="W50" s="2" t="n">
+      <c r="AC50" s="2" t="n">
         <v>38352</v>
       </c>
-      <c r="X50" t="inlineStr">
+      <c r="AD50" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y50" t="inlineStr">
+      <c r="AE50" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
+      <c r="AF50" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -4835,35 +5747,53 @@
       <c r="Q51" t="n">
         <v>62.22962417096538</v>
       </c>
-      <c r="R51" s="2" t="n">
+      <c r="R51" t="n">
+        <v>-2.529044821440367</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-2.58515413558652</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-1.698957026866472</v>
+      </c>
+      <c r="U51" t="n">
+        <v>3.001023169846185</v>
+      </c>
+      <c r="V51" t="n">
+        <v>17.02917684335599</v>
+      </c>
+      <c r="W51" t="n">
+        <v>21.15981252887978</v>
+      </c>
+      <c r="X51" s="2" t="n">
         <v>38383</v>
       </c>
-      <c r="S51" s="2" t="n">
+      <c r="Y51" s="2" t="n">
         <v>38717</v>
       </c>
-      <c r="T51" s="2" t="n">
+      <c r="Z51" s="2" t="n">
         <v>39082</v>
       </c>
-      <c r="U51" s="2" t="n">
+      <c r="AA51" s="2" t="n">
         <v>38442</v>
       </c>
-      <c r="V51" s="2" t="n">
+      <c r="AB51" s="2" t="n">
         <v>39447</v>
       </c>
-      <c r="W51" s="2" t="n">
+      <c r="AC51" s="2" t="n">
         <v>38533</v>
       </c>
-      <c r="X51" t="inlineStr">
+      <c r="AD51" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y51" t="inlineStr">
+      <c r="AE51" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr">
+      <c r="AF51" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -4921,35 +5851,53 @@
       <c r="Q52" t="n">
         <v>-60.16129032258064</v>
       </c>
-      <c r="R52" s="2" t="n">
+      <c r="R52" t="n">
+        <v>3.245812816275079</v>
+      </c>
+      <c r="S52" t="n">
+        <v>8.733334529598606</v>
+      </c>
+      <c r="T52" t="n">
+        <v>6.230496826899492</v>
+      </c>
+      <c r="U52" t="n">
+        <v>8.993452766386071</v>
+      </c>
+      <c r="V52" t="n">
+        <v>37.74635720942921</v>
+      </c>
+      <c r="W52" t="n">
+        <v>5.56058811232668</v>
+      </c>
+      <c r="X52" s="2" t="n">
         <v>38352</v>
       </c>
-      <c r="S52" s="2" t="n">
+      <c r="Y52" s="2" t="n">
         <v>38352</v>
       </c>
-      <c r="T52" s="2" t="n">
+      <c r="Z52" s="2" t="n">
         <v>38352</v>
       </c>
-      <c r="U52" s="2" t="n">
+      <c r="AA52" s="2" t="n">
         <v>38352</v>
       </c>
-      <c r="V52" s="2" t="n">
+      <c r="AB52" s="2" t="n">
         <v>38352</v>
       </c>
-      <c r="W52" s="2" t="n">
+      <c r="AC52" s="2" t="n">
         <v>38352</v>
       </c>
-      <c r="X52" t="inlineStr">
+      <c r="AD52" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y52" t="inlineStr">
+      <c r="AE52" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
+      <c r="AF52" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -5007,35 +5955,53 @@
       <c r="Q53" t="n">
         <v>-41.29554655870445</v>
       </c>
-      <c r="R53" s="2" t="n">
+      <c r="R53" t="n">
+        <v>-2.529044821440367</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-2.58515413558652</v>
+      </c>
+      <c r="T53" t="n">
+        <v>-1.698957026866472</v>
+      </c>
+      <c r="U53" t="n">
+        <v>3.001023169846185</v>
+      </c>
+      <c r="V53" t="n">
+        <v>17.02917684335599</v>
+      </c>
+      <c r="W53" t="n">
+        <v>21.15981252887978</v>
+      </c>
+      <c r="X53" s="2" t="n">
         <v>38383</v>
       </c>
-      <c r="S53" s="2" t="n">
+      <c r="Y53" s="2" t="n">
         <v>38717</v>
       </c>
-      <c r="T53" s="2" t="n">
+      <c r="Z53" s="2" t="n">
         <v>39082</v>
       </c>
-      <c r="U53" s="2" t="n">
+      <c r="AA53" s="2" t="n">
         <v>38442</v>
       </c>
-      <c r="V53" s="2" t="n">
+      <c r="AB53" s="2" t="n">
         <v>39447</v>
       </c>
-      <c r="W53" s="2" t="n">
+      <c r="AC53" s="2" t="n">
         <v>38533</v>
       </c>
-      <c r="X53" t="inlineStr">
+      <c r="AD53" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y53" t="inlineStr">
+      <c r="AE53" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
+      <c r="AF53" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -5093,35 +6059,53 @@
       <c r="Q54" t="n">
         <v>8.304285421365599</v>
       </c>
-      <c r="R54" s="2" t="n">
+      <c r="R54" t="n">
+        <v>3.718819480400828</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-3.287964954880114</v>
+      </c>
+      <c r="T54" t="n">
+        <v>8.313388093288077</v>
+      </c>
+      <c r="U54" t="n">
+        <v>3.143930215653015</v>
+      </c>
+      <c r="V54" t="n">
+        <v>32.15744486810063</v>
+      </c>
+      <c r="W54" t="n">
+        <v>48.17038680764043</v>
+      </c>
+      <c r="X54" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="S54" s="2" t="n">
+      <c r="Y54" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="T54" s="2" t="n">
+      <c r="Z54" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="U54" s="2" t="n">
+      <c r="AA54" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="V54" s="2" t="n">
+      <c r="AB54" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="W54" s="2" t="n">
+      <c r="AC54" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="X54" t="inlineStr">
+      <c r="AD54" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y54" t="inlineStr">
+      <c r="AE54" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr">
+      <c r="AF54" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -5179,35 +6163,53 @@
       <c r="Q55" t="n">
         <v>40.58507579900991</v>
       </c>
-      <c r="R55" s="2" t="n">
+      <c r="R55" t="n">
+        <v>1.698772537734177</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5.763640101016032</v>
+      </c>
+      <c r="T55" t="n">
+        <v>2.956334057673106</v>
+      </c>
+      <c r="U55" t="n">
+        <v>17.92153638339108</v>
+      </c>
+      <c r="V55" t="n">
+        <v>43.90600223174957</v>
+      </c>
+      <c r="W55" t="n">
+        <v>51.45871263287719</v>
+      </c>
+      <c r="X55" s="2" t="n">
         <v>41120</v>
       </c>
-      <c r="S55" s="2" t="n">
+      <c r="Y55" s="2" t="n">
         <v>41455</v>
       </c>
-      <c r="T55" s="2" t="n">
+      <c r="Z55" s="2" t="n">
         <v>41820</v>
       </c>
-      <c r="U55" s="2" t="n">
+      <c r="AA55" s="2" t="n">
         <v>41182</v>
       </c>
-      <c r="V55" s="2" t="n">
+      <c r="AB55" s="2" t="n">
         <v>42185</v>
       </c>
-      <c r="W55" s="2" t="n">
+      <c r="AC55" s="2" t="n">
         <v>41273</v>
       </c>
-      <c r="X55" t="inlineStr">
+      <c r="AD55" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y55" t="inlineStr">
+      <c r="AE55" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr">
+      <c r="AF55" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -5265,35 +6267,53 @@
       <c r="Q56" t="n">
         <v>915.0357142857142</v>
       </c>
-      <c r="R56" s="2" t="n">
+      <c r="R56" t="n">
+        <v>3.718819480400828</v>
+      </c>
+      <c r="S56" t="n">
+        <v>-3.287964954880114</v>
+      </c>
+      <c r="T56" t="n">
+        <v>8.313388093288077</v>
+      </c>
+      <c r="U56" t="n">
+        <v>3.143930215653015</v>
+      </c>
+      <c r="V56" t="n">
+        <v>32.15744486810063</v>
+      </c>
+      <c r="W56" t="n">
+        <v>48.17038680764043</v>
+      </c>
+      <c r="X56" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="S56" s="2" t="n">
+      <c r="Y56" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="T56" s="2" t="n">
+      <c r="Z56" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="U56" s="2" t="n">
+      <c r="AA56" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="V56" s="2" t="n">
+      <c r="AB56" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="W56" s="2" t="n">
+      <c r="AC56" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="X56" t="inlineStr">
+      <c r="AD56" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y56" t="inlineStr">
+      <c r="AE56" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr">
+      <c r="AF56" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -5351,35 +6371,53 @@
       <c r="Q57" t="n">
         <v>55.51880651630837</v>
       </c>
-      <c r="R57" s="2" t="n">
+      <c r="R57" t="n">
+        <v>1.698772537734177</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5.763640101016032</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2.956334057673106</v>
+      </c>
+      <c r="U57" t="n">
+        <v>17.92153638339108</v>
+      </c>
+      <c r="V57" t="n">
+        <v>43.90600223174957</v>
+      </c>
+      <c r="W57" t="n">
+        <v>51.45871263287719</v>
+      </c>
+      <c r="X57" s="2" t="n">
         <v>41120</v>
       </c>
-      <c r="S57" s="2" t="n">
+      <c r="Y57" s="2" t="n">
         <v>41455</v>
       </c>
-      <c r="T57" s="2" t="n">
+      <c r="Z57" s="2" t="n">
         <v>41820</v>
       </c>
-      <c r="U57" s="2" t="n">
+      <c r="AA57" s="2" t="n">
         <v>41182</v>
       </c>
-      <c r="V57" s="2" t="n">
+      <c r="AB57" s="2" t="n">
         <v>42185</v>
       </c>
-      <c r="W57" s="2" t="n">
+      <c r="AC57" s="2" t="n">
         <v>41273</v>
       </c>
-      <c r="X57" t="inlineStr">
+      <c r="AD57" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y57" t="inlineStr">
+      <c r="AE57" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
+      <c r="AF57" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -5437,35 +6475,53 @@
       <c r="Q58" t="n">
         <v>362.0540540540541</v>
       </c>
-      <c r="R58" s="2" t="n">
+      <c r="R58" t="n">
+        <v>2.421277802908901</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5.168477405133038</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2.73793501249759</v>
+      </c>
+      <c r="U58" t="n">
+        <v>8.710866610786043</v>
+      </c>
+      <c r="V58" t="n">
+        <v>19.85232105367044</v>
+      </c>
+      <c r="W58" t="n">
+        <v>34.12552586925307</v>
+      </c>
+      <c r="X58" s="2" t="n">
         <v>38990</v>
       </c>
-      <c r="S58" s="2" t="n">
+      <c r="Y58" s="2" t="n">
         <v>38990</v>
       </c>
-      <c r="T58" s="2" t="n">
+      <c r="Z58" s="2" t="n">
         <v>38990</v>
       </c>
-      <c r="U58" s="2" t="n">
+      <c r="AA58" s="2" t="n">
         <v>38990</v>
       </c>
-      <c r="V58" s="2" t="n">
+      <c r="AB58" s="2" t="n">
         <v>38990</v>
       </c>
-      <c r="W58" s="2" t="n">
+      <c r="AC58" s="2" t="n">
         <v>38990</v>
       </c>
-      <c r="X58" t="inlineStr">
+      <c r="AD58" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y58" t="inlineStr">
+      <c r="AE58" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr">
+      <c r="AF58" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -5523,35 +6579,53 @@
       <c r="Q59" t="n">
         <v>-44.58352831071596</v>
       </c>
-      <c r="R59" s="2" t="n">
+      <c r="R59" t="n">
+        <v>3.150054272560554</v>
+      </c>
+      <c r="S59" t="n">
+        <v>6.172100160946218</v>
+      </c>
+      <c r="T59" t="n">
+        <v>6.363738443687541</v>
+      </c>
+      <c r="U59" t="n">
+        <v>14.29052663098403</v>
+      </c>
+      <c r="V59" t="n">
+        <v>-12.68780177415129</v>
+      </c>
+      <c r="W59" t="n">
+        <v>-20.86836096867163</v>
+      </c>
+      <c r="X59" s="2" t="n">
         <v>39020</v>
       </c>
-      <c r="S59" s="2" t="n">
+      <c r="Y59" s="2" t="n">
         <v>39355</v>
       </c>
-      <c r="T59" s="2" t="n">
+      <c r="Z59" s="2" t="n">
         <v>39721</v>
       </c>
-      <c r="U59" s="2" t="n">
+      <c r="AA59" s="2" t="n">
         <v>39081</v>
       </c>
-      <c r="V59" s="2" t="n">
+      <c r="AB59" s="2" t="n">
         <v>40086</v>
       </c>
-      <c r="W59" s="2" t="n">
+      <c r="AC59" s="2" t="n">
         <v>39171</v>
       </c>
-      <c r="X59" t="inlineStr">
+      <c r="AD59" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y59" t="inlineStr">
+      <c r="AE59" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr">
+      <c r="AF59" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -5609,35 +6683,53 @@
       <c r="Q60" t="n">
         <v>44.33573635427393</v>
       </c>
-      <c r="R60" s="2" t="n">
+      <c r="R60" t="n">
+        <v>2.421277802908901</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5.168477405133038</v>
+      </c>
+      <c r="T60" t="n">
+        <v>2.73793501249759</v>
+      </c>
+      <c r="U60" t="n">
+        <v>8.710866610786043</v>
+      </c>
+      <c r="V60" t="n">
+        <v>19.85232105367044</v>
+      </c>
+      <c r="W60" t="n">
+        <v>34.12552586925307</v>
+      </c>
+      <c r="X60" s="2" t="n">
         <v>38990</v>
       </c>
-      <c r="S60" s="2" t="n">
+      <c r="Y60" s="2" t="n">
         <v>38990</v>
       </c>
-      <c r="T60" s="2" t="n">
+      <c r="Z60" s="2" t="n">
         <v>38990</v>
       </c>
-      <c r="U60" s="2" t="n">
+      <c r="AA60" s="2" t="n">
         <v>38990</v>
       </c>
-      <c r="V60" s="2" t="n">
+      <c r="AB60" s="2" t="n">
         <v>38990</v>
       </c>
-      <c r="W60" s="2" t="n">
+      <c r="AC60" s="2" t="n">
         <v>38990</v>
       </c>
-      <c r="X60" t="inlineStr">
+      <c r="AD60" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y60" t="inlineStr">
+      <c r="AE60" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr">
+      <c r="AF60" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -5695,35 +6787,53 @@
       <c r="Q61" t="n">
         <v>32.53656796289688</v>
       </c>
-      <c r="R61" s="2" t="n">
+      <c r="R61" t="n">
+        <v>3.150054272560554</v>
+      </c>
+      <c r="S61" t="n">
+        <v>6.172100160946218</v>
+      </c>
+      <c r="T61" t="n">
+        <v>6.363738443687541</v>
+      </c>
+      <c r="U61" t="n">
+        <v>14.29052663098403</v>
+      </c>
+      <c r="V61" t="n">
+        <v>-12.68780177415129</v>
+      </c>
+      <c r="W61" t="n">
+        <v>-20.86836096867163</v>
+      </c>
+      <c r="X61" s="2" t="n">
         <v>39020</v>
       </c>
-      <c r="S61" s="2" t="n">
+      <c r="Y61" s="2" t="n">
         <v>39355</v>
       </c>
-      <c r="T61" s="2" t="n">
+      <c r="Z61" s="2" t="n">
         <v>39721</v>
       </c>
-      <c r="U61" s="2" t="n">
+      <c r="AA61" s="2" t="n">
         <v>39081</v>
       </c>
-      <c r="V61" s="2" t="n">
+      <c r="AB61" s="2" t="n">
         <v>40086</v>
       </c>
-      <c r="W61" s="2" t="n">
+      <c r="AC61" s="2" t="n">
         <v>39171</v>
       </c>
-      <c r="X61" t="inlineStr">
+      <c r="AD61" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y61" t="inlineStr">
+      <c r="AE61" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr">
+      <c r="AF61" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -5781,35 +6891,53 @@
       <c r="Q62" t="n">
         <v>9.661016949152547</v>
       </c>
-      <c r="R62" s="2" t="n">
+      <c r="R62" t="n">
+        <v>1.28566324006377</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-3.699807920973193</v>
+      </c>
+      <c r="T62" t="n">
+        <v>4.774598029598675</v>
+      </c>
+      <c r="U62" t="n">
+        <v>13.05164823365189</v>
+      </c>
+      <c r="V62" t="n">
+        <v>20.78618078716413</v>
+      </c>
+      <c r="W62" t="n">
+        <v>33.48456857204955</v>
+      </c>
+      <c r="X62" s="2" t="n">
         <v>39325</v>
       </c>
-      <c r="S62" s="2" t="n">
+      <c r="Y62" s="2" t="n">
         <v>39325</v>
       </c>
-      <c r="T62" s="2" t="n">
+      <c r="Z62" s="2" t="n">
         <v>39325</v>
       </c>
-      <c r="U62" s="2" t="n">
+      <c r="AA62" s="2" t="n">
         <v>39325</v>
       </c>
-      <c r="V62" s="2" t="n">
+      <c r="AB62" s="2" t="n">
         <v>39325</v>
       </c>
-      <c r="W62" s="2" t="n">
+      <c r="AC62" s="2" t="n">
         <v>39325</v>
       </c>
-      <c r="X62" t="inlineStr">
+      <c r="AD62" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y62" t="inlineStr">
+      <c r="AE62" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr">
+      <c r="AF62" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -5867,35 +6995,53 @@
       <c r="Q63" t="n">
         <v>-35.7032457496136</v>
       </c>
-      <c r="R63" s="2" t="n">
+      <c r="R63" t="n">
+        <v>3.579400131615546</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.4850779177606423</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-9.7259818587643</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-12.96888038589136</v>
+      </c>
+      <c r="V63" t="n">
+        <v>-30.75733213929539</v>
+      </c>
+      <c r="W63" t="n">
+        <v>-28.81023616171073</v>
+      </c>
+      <c r="X63" s="2" t="n">
         <v>39355</v>
       </c>
-      <c r="S63" s="2" t="n">
+      <c r="Y63" s="2" t="n">
         <v>39691</v>
       </c>
-      <c r="T63" s="2" t="n">
+      <c r="Z63" s="2" t="n">
         <v>40056</v>
       </c>
-      <c r="U63" s="2" t="n">
+      <c r="AA63" s="2" t="n">
         <v>39416</v>
       </c>
-      <c r="V63" s="2" t="n">
+      <c r="AB63" s="2" t="n">
         <v>40421</v>
       </c>
-      <c r="W63" s="2" t="n">
+      <c r="AC63" s="2" t="n">
         <v>39507</v>
       </c>
-      <c r="X63" t="inlineStr">
+      <c r="AD63" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y63" t="inlineStr">
+      <c r="AE63" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr">
+      <c r="AF63" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -5953,35 +7099,53 @@
       <c r="Q64" t="n">
         <v>210.5142857142857</v>
       </c>
-      <c r="R64" s="2" t="n">
+      <c r="R64" t="n">
+        <v>1.28566324006377</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-3.699807920973193</v>
+      </c>
+      <c r="T64" t="n">
+        <v>4.774598029598675</v>
+      </c>
+      <c r="U64" t="n">
+        <v>13.05164823365189</v>
+      </c>
+      <c r="V64" t="n">
+        <v>20.78618078716413</v>
+      </c>
+      <c r="W64" t="n">
+        <v>33.48456857204955</v>
+      </c>
+      <c r="X64" s="2" t="n">
         <v>39325</v>
       </c>
-      <c r="S64" s="2" t="n">
+      <c r="Y64" s="2" t="n">
         <v>39325</v>
       </c>
-      <c r="T64" s="2" t="n">
+      <c r="Z64" s="2" t="n">
         <v>39325</v>
       </c>
-      <c r="U64" s="2" t="n">
+      <c r="AA64" s="2" t="n">
         <v>39325</v>
       </c>
-      <c r="V64" s="2" t="n">
+      <c r="AB64" s="2" t="n">
         <v>39325</v>
       </c>
-      <c r="W64" s="2" t="n">
+      <c r="AC64" s="2" t="n">
         <v>39325</v>
       </c>
-      <c r="X64" t="inlineStr">
+      <c r="AD64" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y64" t="inlineStr">
+      <c r="AE64" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z64" t="inlineStr">
+      <c r="AF64" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -6039,35 +7203,53 @@
       <c r="Q65" t="n">
         <v>-52.88921604711079</v>
       </c>
-      <c r="R65" s="2" t="n">
+      <c r="R65" t="n">
+        <v>3.579400131615546</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.4850779177606423</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-9.7259818587643</v>
+      </c>
+      <c r="U65" t="n">
+        <v>-12.96888038589136</v>
+      </c>
+      <c r="V65" t="n">
+        <v>-30.75733213929539</v>
+      </c>
+      <c r="W65" t="n">
+        <v>-28.81023616171073</v>
+      </c>
+      <c r="X65" s="2" t="n">
         <v>39355</v>
       </c>
-      <c r="S65" s="2" t="n">
+      <c r="Y65" s="2" t="n">
         <v>39691</v>
       </c>
-      <c r="T65" s="2" t="n">
+      <c r="Z65" s="2" t="n">
         <v>40056</v>
       </c>
-      <c r="U65" s="2" t="n">
+      <c r="AA65" s="2" t="n">
         <v>39416</v>
       </c>
-      <c r="V65" s="2" t="n">
+      <c r="AB65" s="2" t="n">
         <v>40421</v>
       </c>
-      <c r="W65" s="2" t="n">
+      <c r="AC65" s="2" t="n">
         <v>39507</v>
       </c>
-      <c r="X65" t="inlineStr">
+      <c r="AD65" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y65" t="inlineStr">
+      <c r="AE65" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z65" t="inlineStr">
+      <c r="AF65" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -6125,35 +7307,53 @@
       <c r="Q66" t="n">
         <v>82.22623209653773</v>
       </c>
-      <c r="R66" s="2" t="n">
+      <c r="R66" t="n">
+        <v>1.78843413747359</v>
+      </c>
+      <c r="S66" t="n">
+        <v>7.182936293300086</v>
+      </c>
+      <c r="T66" t="n">
+        <v>4.843117408906882</v>
+      </c>
+      <c r="U66" t="n">
+        <v>17.45299550571063</v>
+      </c>
+      <c r="V66" t="n">
+        <v>14.22964526137975</v>
+      </c>
+      <c r="W66" t="n">
+        <v>27.8403895455489</v>
+      </c>
+      <c r="X66" s="2" t="n">
         <v>42766</v>
       </c>
-      <c r="S66" s="2" t="n">
+      <c r="Y66" s="2" t="n">
         <v>42766</v>
       </c>
-      <c r="T66" s="2" t="n">
+      <c r="Z66" s="2" t="n">
         <v>42766</v>
       </c>
-      <c r="U66" s="2" t="n">
+      <c r="AA66" s="2" t="n">
         <v>42766</v>
       </c>
-      <c r="V66" s="2" t="n">
+      <c r="AB66" s="2" t="n">
         <v>42766</v>
       </c>
-      <c r="W66" s="2" t="n">
+      <c r="AC66" s="2" t="n">
         <v>42766</v>
       </c>
-      <c r="X66" t="inlineStr">
+      <c r="AD66" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y66" t="inlineStr">
+      <c r="AE66" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z66" t="inlineStr">
+      <c r="AF66" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -6211,35 +7411,53 @@
       <c r="Q67" t="n">
         <v>-5.387424186161661</v>
       </c>
-      <c r="R67" s="2" t="n">
+      <c r="R67" t="n">
+        <v>3.719826054140867</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4.622027583846377</v>
+      </c>
+      <c r="T67" t="n">
+        <v>8.40021589647502</v>
+      </c>
+      <c r="U67" t="n">
+        <v>23.91272867693199</v>
+      </c>
+      <c r="V67" t="n">
+        <v>18.65968659906006</v>
+      </c>
+      <c r="W67" t="n">
+        <v>41.54032481010326</v>
+      </c>
+      <c r="X67" s="2" t="n">
         <v>42794</v>
       </c>
-      <c r="S67" s="2" t="n">
+      <c r="Y67" s="2" t="n">
         <v>43131</v>
       </c>
-      <c r="T67" s="2" t="n">
+      <c r="Z67" s="2" t="n">
         <v>43496</v>
       </c>
-      <c r="U67" s="2" t="n">
+      <c r="AA67" s="2" t="n">
         <v>42855</v>
       </c>
-      <c r="V67" s="2" t="n">
+      <c r="AB67" s="2" t="n">
         <v>43861</v>
       </c>
-      <c r="W67" s="2" t="n">
+      <c r="AC67" s="2" t="n">
         <v>42947</v>
       </c>
-      <c r="X67" t="inlineStr">
+      <c r="AD67" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y67" t="inlineStr">
+      <c r="AE67" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z67" t="inlineStr">
+      <c r="AF67" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -6297,35 +7515,53 @@
       <c r="Q68" t="n">
         <v>75.14124293785312</v>
       </c>
-      <c r="R68" s="2" t="n">
+      <c r="R68" t="n">
+        <v>1.78843413747359</v>
+      </c>
+      <c r="S68" t="n">
+        <v>7.182936293300086</v>
+      </c>
+      <c r="T68" t="n">
+        <v>4.843117408906882</v>
+      </c>
+      <c r="U68" t="n">
+        <v>17.45299550571063</v>
+      </c>
+      <c r="V68" t="n">
+        <v>14.22964526137975</v>
+      </c>
+      <c r="W68" t="n">
+        <v>27.8403895455489</v>
+      </c>
+      <c r="X68" s="2" t="n">
         <v>42766</v>
       </c>
-      <c r="S68" s="2" t="n">
+      <c r="Y68" s="2" t="n">
         <v>42766</v>
       </c>
-      <c r="T68" s="2" t="n">
+      <c r="Z68" s="2" t="n">
         <v>42766</v>
       </c>
-      <c r="U68" s="2" t="n">
+      <c r="AA68" s="2" t="n">
         <v>42766</v>
       </c>
-      <c r="V68" s="2" t="n">
+      <c r="AB68" s="2" t="n">
         <v>42766</v>
       </c>
-      <c r="W68" s="2" t="n">
+      <c r="AC68" s="2" t="n">
         <v>42766</v>
       </c>
-      <c r="X68" t="inlineStr">
+      <c r="AD68" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y68" t="inlineStr">
+      <c r="AE68" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z68" t="inlineStr">
+      <c r="AF68" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -6383,35 +7619,53 @@
       <c r="Q69" t="n">
         <v>-53.06451612903226</v>
       </c>
-      <c r="R69" s="2" t="n">
+      <c r="R69" t="n">
+        <v>3.719826054140867</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4.622027583846377</v>
+      </c>
+      <c r="T69" t="n">
+        <v>8.40021589647502</v>
+      </c>
+      <c r="U69" t="n">
+        <v>23.91272867693199</v>
+      </c>
+      <c r="V69" t="n">
+        <v>18.65968659906006</v>
+      </c>
+      <c r="W69" t="n">
+        <v>41.54032481010326</v>
+      </c>
+      <c r="X69" s="2" t="n">
         <v>42794</v>
       </c>
-      <c r="S69" s="2" t="n">
+      <c r="Y69" s="2" t="n">
         <v>43131</v>
       </c>
-      <c r="T69" s="2" t="n">
+      <c r="Z69" s="2" t="n">
         <v>43496</v>
       </c>
-      <c r="U69" s="2" t="n">
+      <c r="AA69" s="2" t="n">
         <v>42855</v>
       </c>
-      <c r="V69" s="2" t="n">
+      <c r="AB69" s="2" t="n">
         <v>43861</v>
       </c>
-      <c r="W69" s="2" t="n">
+      <c r="AC69" s="2" t="n">
         <v>42947</v>
       </c>
-      <c r="X69" t="inlineStr">
+      <c r="AD69" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y69" t="inlineStr">
+      <c r="AE69" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z69" t="inlineStr">
+      <c r="AF69" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -6469,35 +7723,53 @@
       <c r="Q70" t="n">
         <v>105.4530874097835</v>
       </c>
-      <c r="R70" s="2" t="n">
+      <c r="R70" t="n">
+        <v>3.718819480400828</v>
+      </c>
+      <c r="S70" t="n">
+        <v>-3.287964954880114</v>
+      </c>
+      <c r="T70" t="n">
+        <v>8.313388093288077</v>
+      </c>
+      <c r="U70" t="n">
+        <v>3.143930215653015</v>
+      </c>
+      <c r="V70" t="n">
+        <v>32.15744486810063</v>
+      </c>
+      <c r="W70" t="n">
+        <v>48.17038680764043</v>
+      </c>
+      <c r="X70" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="S70" s="2" t="n">
+      <c r="Y70" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="T70" s="2" t="n">
+      <c r="Z70" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="U70" s="2" t="n">
+      <c r="AA70" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="V70" s="2" t="n">
+      <c r="AB70" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="W70" s="2" t="n">
+      <c r="AC70" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="X70" t="inlineStr">
+      <c r="AD70" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y70" t="inlineStr">
+      <c r="AE70" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z70" t="inlineStr">
+      <c r="AF70" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -6555,35 +7827,53 @@
       <c r="Q71" t="n">
         <v>16.66666666666666</v>
       </c>
-      <c r="R71" s="2" t="n">
+      <c r="R71" t="n">
+        <v>1.698772537734177</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5.763640101016032</v>
+      </c>
+      <c r="T71" t="n">
+        <v>2.956334057673106</v>
+      </c>
+      <c r="U71" t="n">
+        <v>17.92153638339108</v>
+      </c>
+      <c r="V71" t="n">
+        <v>43.90600223174957</v>
+      </c>
+      <c r="W71" t="n">
+        <v>51.45871263287719</v>
+      </c>
+      <c r="X71" s="2" t="n">
         <v>41120</v>
       </c>
-      <c r="S71" s="2" t="n">
+      <c r="Y71" s="2" t="n">
         <v>41455</v>
       </c>
-      <c r="T71" s="2" t="n">
+      <c r="Z71" s="2" t="n">
         <v>41820</v>
       </c>
-      <c r="U71" s="2" t="n">
+      <c r="AA71" s="2" t="n">
         <v>41182</v>
       </c>
-      <c r="V71" s="2" t="n">
+      <c r="AB71" s="2" t="n">
         <v>42185</v>
       </c>
-      <c r="W71" s="2" t="n">
+      <c r="AC71" s="2" t="n">
         <v>41273</v>
       </c>
-      <c r="X71" t="inlineStr">
+      <c r="AD71" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y71" t="inlineStr">
+      <c r="AE71" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr">
+      <c r="AF71" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -6641,35 +7931,53 @@
       <c r="Q72" t="n">
         <v>-26.99386503067485</v>
       </c>
-      <c r="R72" s="2" t="n">
+      <c r="R72" t="n">
+        <v>3.718819480400828</v>
+      </c>
+      <c r="S72" t="n">
+        <v>-3.287964954880114</v>
+      </c>
+      <c r="T72" t="n">
+        <v>8.313388093288077</v>
+      </c>
+      <c r="U72" t="n">
+        <v>3.143930215653015</v>
+      </c>
+      <c r="V72" t="n">
+        <v>32.15744486810063</v>
+      </c>
+      <c r="W72" t="n">
+        <v>48.17038680764043</v>
+      </c>
+      <c r="X72" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="S72" s="2" t="n">
+      <c r="Y72" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="T72" s="2" t="n">
+      <c r="Z72" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="U72" s="2" t="n">
+      <c r="AA72" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="V72" s="2" t="n">
+      <c r="AB72" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="W72" s="2" t="n">
+      <c r="AC72" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="X72" t="inlineStr">
+      <c r="AD72" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y72" t="inlineStr">
+      <c r="AE72" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z72" t="inlineStr">
+      <c r="AF72" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -6727,35 +8035,53 @@
       <c r="Q73" t="n">
         <v>-44.25770308123249</v>
       </c>
-      <c r="R73" s="2" t="n">
+      <c r="R73" t="n">
+        <v>1.698772537734177</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5.763640101016032</v>
+      </c>
+      <c r="T73" t="n">
+        <v>2.956334057673106</v>
+      </c>
+      <c r="U73" t="n">
+        <v>17.92153638339108</v>
+      </c>
+      <c r="V73" t="n">
+        <v>43.90600223174957</v>
+      </c>
+      <c r="W73" t="n">
+        <v>51.45871263287719</v>
+      </c>
+      <c r="X73" s="2" t="n">
         <v>41120</v>
       </c>
-      <c r="S73" s="2" t="n">
+      <c r="Y73" s="2" t="n">
         <v>41455</v>
       </c>
-      <c r="T73" s="2" t="n">
+      <c r="Z73" s="2" t="n">
         <v>41820</v>
       </c>
-      <c r="U73" s="2" t="n">
+      <c r="AA73" s="2" t="n">
         <v>41182</v>
       </c>
-      <c r="V73" s="2" t="n">
+      <c r="AB73" s="2" t="n">
         <v>42185</v>
       </c>
-      <c r="W73" s="2" t="n">
+      <c r="AC73" s="2" t="n">
         <v>41273</v>
       </c>
-      <c r="X73" t="inlineStr">
+      <c r="AD73" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y73" t="inlineStr">
+      <c r="AE73" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z73" t="inlineStr">
+      <c r="AF73" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -6813,35 +8139,53 @@
       <c r="Q74" t="n">
         <v>29.92462460680158</v>
       </c>
-      <c r="R74" s="2" t="n">
+      <c r="R74" t="n">
+        <v>-0.03892301704151532</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5.533693938351723</v>
+      </c>
+      <c r="T74" t="n">
+        <v>8.967979080096105</v>
+      </c>
+      <c r="U74" t="n">
+        <v>14.70962354471924</v>
+      </c>
+      <c r="V74" t="n">
+        <v>14.2575282050786</v>
+      </c>
+      <c r="W74" t="n">
+        <v>26.19075595244453</v>
+      </c>
+      <c r="X74" s="2" t="n">
         <v>42825</v>
       </c>
-      <c r="S74" s="2" t="n">
+      <c r="Y74" s="2" t="n">
         <v>42825</v>
       </c>
-      <c r="T74" s="2" t="n">
+      <c r="Z74" s="2" t="n">
         <v>42825</v>
       </c>
-      <c r="U74" s="2" t="n">
+      <c r="AA74" s="2" t="n">
         <v>42825</v>
       </c>
-      <c r="V74" s="2" t="n">
+      <c r="AB74" s="2" t="n">
         <v>42825</v>
       </c>
-      <c r="W74" s="2" t="n">
+      <c r="AC74" s="2" t="n">
         <v>42825</v>
       </c>
-      <c r="X74" t="inlineStr">
+      <c r="AD74" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y74" t="inlineStr">
+      <c r="AE74" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z74" t="inlineStr">
+      <c r="AF74" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -6899,35 +8243,53 @@
       <c r="Q75" t="n">
         <v>-9.273217303914844</v>
       </c>
-      <c r="R75" s="2" t="n">
+      <c r="R75" t="n">
+        <v>0.9091216902552999</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2.568649691880547</v>
+      </c>
+      <c r="T75" t="n">
+        <v>6.629647186293777</v>
+      </c>
+      <c r="U75" t="n">
+        <v>11.77244870318955</v>
+      </c>
+      <c r="V75" t="n">
+        <v>19.96343197670483</v>
+      </c>
+      <c r="W75" t="n">
+        <v>9.390448296878191</v>
+      </c>
+      <c r="X75" s="2" t="n">
         <v>42855</v>
       </c>
-      <c r="S75" s="2" t="n">
+      <c r="Y75" s="2" t="n">
         <v>43190</v>
       </c>
-      <c r="T75" s="2" t="n">
+      <c r="Z75" s="2" t="n">
         <v>43555</v>
       </c>
-      <c r="U75" s="2" t="n">
+      <c r="AA75" s="2" t="n">
         <v>42916</v>
       </c>
-      <c r="V75" s="2" t="n">
+      <c r="AB75" s="2" t="n">
         <v>43921</v>
       </c>
-      <c r="W75" s="2" t="n">
+      <c r="AC75" s="2" t="n">
         <v>43008</v>
       </c>
-      <c r="X75" t="inlineStr">
+      <c r="AD75" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y75" t="inlineStr">
+      <c r="AE75" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z75" t="inlineStr">
+      <c r="AF75" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -6985,35 +8347,53 @@
       <c r="Q76" t="n">
         <v>-7.80386740331492</v>
       </c>
-      <c r="R76" s="2" t="n">
+      <c r="R76" t="n">
+        <v>-0.03892301704151532</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5.533693938351723</v>
+      </c>
+      <c r="T76" t="n">
+        <v>8.967979080096105</v>
+      </c>
+      <c r="U76" t="n">
+        <v>14.70962354471924</v>
+      </c>
+      <c r="V76" t="n">
+        <v>14.2575282050786</v>
+      </c>
+      <c r="W76" t="n">
+        <v>26.19075595244453</v>
+      </c>
+      <c r="X76" s="2" t="n">
         <v>42825</v>
       </c>
-      <c r="S76" s="2" t="n">
+      <c r="Y76" s="2" t="n">
         <v>42825</v>
       </c>
-      <c r="T76" s="2" t="n">
+      <c r="Z76" s="2" t="n">
         <v>42825</v>
       </c>
-      <c r="U76" s="2" t="n">
+      <c r="AA76" s="2" t="n">
         <v>42825</v>
       </c>
-      <c r="V76" s="2" t="n">
+      <c r="AB76" s="2" t="n">
         <v>42825</v>
       </c>
-      <c r="W76" s="2" t="n">
+      <c r="AC76" s="2" t="n">
         <v>42825</v>
       </c>
-      <c r="X76" t="inlineStr">
+      <c r="AD76" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y76" t="inlineStr">
+      <c r="AE76" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z76" t="inlineStr">
+      <c r="AF76" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -7071,35 +8451,53 @@
       <c r="Q77" t="n">
         <v>-18.27715355805244</v>
       </c>
-      <c r="R77" s="2" t="n">
+      <c r="R77" t="n">
+        <v>0.9091216902552999</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2.568649691880547</v>
+      </c>
+      <c r="T77" t="n">
+        <v>6.629647186293777</v>
+      </c>
+      <c r="U77" t="n">
+        <v>11.77244870318955</v>
+      </c>
+      <c r="V77" t="n">
+        <v>19.96343197670483</v>
+      </c>
+      <c r="W77" t="n">
+        <v>9.390448296878191</v>
+      </c>
+      <c r="X77" s="2" t="n">
         <v>42855</v>
       </c>
-      <c r="S77" s="2" t="n">
+      <c r="Y77" s="2" t="n">
         <v>43190</v>
       </c>
-      <c r="T77" s="2" t="n">
+      <c r="Z77" s="2" t="n">
         <v>43555</v>
       </c>
-      <c r="U77" s="2" t="n">
+      <c r="AA77" s="2" t="n">
         <v>42916</v>
       </c>
-      <c r="V77" s="2" t="n">
+      <c r="AB77" s="2" t="n">
         <v>43921</v>
       </c>
-      <c r="W77" s="2" t="n">
+      <c r="AC77" s="2" t="n">
         <v>43008</v>
       </c>
-      <c r="X77" t="inlineStr">
+      <c r="AD77" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y77" t="inlineStr">
+      <c r="AE77" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z77" t="inlineStr">
+      <c r="AF77" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -7157,35 +8555,53 @@
       <c r="Q78" t="n">
         <v>210.9178743961353</v>
       </c>
-      <c r="R78" s="2" t="n">
+      <c r="R78" t="n">
+        <v>0.8540771155449945</v>
+      </c>
+      <c r="S78" t="n">
+        <v>11.153241059907</v>
+      </c>
+      <c r="T78" t="n">
+        <v>-4.77268597043859</v>
+      </c>
+      <c r="U78" t="n">
+        <v>-0.002385420311074719</v>
+      </c>
+      <c r="V78" t="n">
+        <v>12.78001972917227</v>
+      </c>
+      <c r="W78" t="n">
+        <v>39.23166343758648</v>
+      </c>
+      <c r="X78" s="2" t="n">
         <v>40908</v>
       </c>
-      <c r="S78" s="2" t="n">
+      <c r="Y78" s="2" t="n">
         <v>40908</v>
       </c>
-      <c r="T78" s="2" t="n">
+      <c r="Z78" s="2" t="n">
         <v>40908</v>
       </c>
-      <c r="U78" s="2" t="n">
+      <c r="AA78" s="2" t="n">
         <v>40908</v>
       </c>
-      <c r="V78" s="2" t="n">
+      <c r="AB78" s="2" t="n">
         <v>40908</v>
       </c>
-      <c r="W78" s="2" t="n">
+      <c r="AC78" s="2" t="n">
         <v>40908</v>
       </c>
-      <c r="X78" t="inlineStr">
+      <c r="AD78" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y78" t="inlineStr">
+      <c r="AE78" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z78" t="inlineStr">
+      <c r="AF78" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -7243,35 +8659,53 @@
       <c r="Q79" t="n">
         <v>104.319453076445</v>
       </c>
-      <c r="R79" s="2" t="n">
+      <c r="R79" t="n">
+        <v>4.357471712216043</v>
+      </c>
+      <c r="S79" t="n">
+        <v>11.99576975373925</v>
+      </c>
+      <c r="T79" t="n">
+        <v>8.313388093288077</v>
+      </c>
+      <c r="U79" t="n">
+        <v>13.40479162856531</v>
+      </c>
+      <c r="V79" t="n">
+        <v>46.97402215313174</v>
+      </c>
+      <c r="W79" t="n">
+        <v>63.71530124601429</v>
+      </c>
+      <c r="X79" s="2" t="n">
         <v>40939</v>
       </c>
-      <c r="S79" s="2" t="n">
+      <c r="Y79" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="T79" s="2" t="n">
+      <c r="Z79" s="2" t="n">
         <v>41639</v>
       </c>
-      <c r="U79" s="2" t="n">
+      <c r="AA79" s="2" t="n">
         <v>40999</v>
       </c>
-      <c r="V79" s="2" t="n">
+      <c r="AB79" s="2" t="n">
         <v>42004</v>
       </c>
-      <c r="W79" s="2" t="n">
+      <c r="AC79" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="X79" t="inlineStr">
+      <c r="AD79" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y79" t="inlineStr">
+      <c r="AE79" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z79" t="inlineStr">
+      <c r="AF79" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -7329,35 +8763,53 @@
       <c r="Q80" t="n">
         <v>-5.839296667348183</v>
       </c>
-      <c r="R80" s="2" t="n">
+      <c r="R80" t="n">
+        <v>0.8540771155449945</v>
+      </c>
+      <c r="S80" t="n">
+        <v>11.153241059907</v>
+      </c>
+      <c r="T80" t="n">
+        <v>-4.77268597043859</v>
+      </c>
+      <c r="U80" t="n">
+        <v>-0.002385420311074719</v>
+      </c>
+      <c r="V80" t="n">
+        <v>12.78001972917227</v>
+      </c>
+      <c r="W80" t="n">
+        <v>39.23166343758648</v>
+      </c>
+      <c r="X80" s="2" t="n">
         <v>40908</v>
       </c>
-      <c r="S80" s="2" t="n">
+      <c r="Y80" s="2" t="n">
         <v>40908</v>
       </c>
-      <c r="T80" s="2" t="n">
+      <c r="Z80" s="2" t="n">
         <v>40908</v>
       </c>
-      <c r="U80" s="2" t="n">
+      <c r="AA80" s="2" t="n">
         <v>40908</v>
       </c>
-      <c r="V80" s="2" t="n">
+      <c r="AB80" s="2" t="n">
         <v>40908</v>
       </c>
-      <c r="W80" s="2" t="n">
+      <c r="AC80" s="2" t="n">
         <v>40908</v>
       </c>
-      <c r="X80" t="inlineStr">
+      <c r="AD80" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y80" t="inlineStr">
+      <c r="AE80" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z80" t="inlineStr">
+      <c r="AF80" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -7415,35 +8867,53 @@
       <c r="Q81" t="n">
         <v>140.4568549963087</v>
       </c>
-      <c r="R81" s="2" t="n">
+      <c r="R81" t="n">
+        <v>4.357471712216043</v>
+      </c>
+      <c r="S81" t="n">
+        <v>11.99576975373925</v>
+      </c>
+      <c r="T81" t="n">
+        <v>8.313388093288077</v>
+      </c>
+      <c r="U81" t="n">
+        <v>13.40479162856531</v>
+      </c>
+      <c r="V81" t="n">
+        <v>46.97402215313174</v>
+      </c>
+      <c r="W81" t="n">
+        <v>63.71530124601429</v>
+      </c>
+      <c r="X81" s="2" t="n">
         <v>40939</v>
       </c>
-      <c r="S81" s="2" t="n">
+      <c r="Y81" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="T81" s="2" t="n">
+      <c r="Z81" s="2" t="n">
         <v>41639</v>
       </c>
-      <c r="U81" s="2" t="n">
+      <c r="AA81" s="2" t="n">
         <v>40999</v>
       </c>
-      <c r="V81" s="2" t="n">
+      <c r="AB81" s="2" t="n">
         <v>42004</v>
       </c>
-      <c r="W81" s="2" t="n">
+      <c r="AC81" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="X81" t="inlineStr">
+      <c r="AD81" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y81" t="inlineStr">
+      <c r="AE81" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z81" t="inlineStr">
+      <c r="AF81" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -7501,35 +8971,53 @@
       <c r="Q82" t="n">
         <v>12.5722052327557</v>
       </c>
-      <c r="R82" s="2" t="n">
+      <c r="R82" t="n">
+        <v>-1.35009276846018</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1.354711351546844</v>
+      </c>
+      <c r="T82" t="n">
+        <v>13.94688916183136</v>
+      </c>
+      <c r="U82" t="n">
+        <v>23.47968166255128</v>
+      </c>
+      <c r="V82" t="n">
+        <v>46.35420066583981</v>
+      </c>
+      <c r="W82" t="n">
+        <v>-3.940359045401967</v>
+      </c>
+      <c r="X82" s="2" t="n">
         <v>40694</v>
       </c>
-      <c r="S82" s="2" t="n">
+      <c r="Y82" s="2" t="n">
         <v>40694</v>
       </c>
-      <c r="T82" s="2" t="n">
+      <c r="Z82" s="2" t="n">
         <v>40694</v>
       </c>
-      <c r="U82" s="2" t="n">
+      <c r="AA82" s="2" t="n">
         <v>40694</v>
       </c>
-      <c r="V82" s="2" t="n">
+      <c r="AB82" s="2" t="n">
         <v>40694</v>
       </c>
-      <c r="W82" s="2" t="n">
+      <c r="AC82" s="2" t="n">
         <v>40694</v>
       </c>
-      <c r="X82" t="inlineStr">
+      <c r="AD82" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y82" t="inlineStr">
+      <c r="AE82" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z82" t="inlineStr">
+      <c r="AF82" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -7587,35 +9075,53 @@
       <c r="Q83" t="n">
         <v>161.6963477210987</v>
       </c>
-      <c r="R83" s="2" t="n">
+      <c r="R83" t="n">
+        <v>-1.825750817722268</v>
+      </c>
+      <c r="S83" t="n">
+        <v>-9.389681831697883</v>
+      </c>
+      <c r="T83" t="n">
+        <v>-7.303003270889088</v>
+      </c>
+      <c r="U83" t="n">
+        <v>-2.592179601546247</v>
+      </c>
+      <c r="V83" t="n">
+        <v>21.22658340767172</v>
+      </c>
+      <c r="W83" t="n">
+        <v>42.99509366636931</v>
+      </c>
+      <c r="X83" s="2" t="n">
         <v>40724</v>
       </c>
-      <c r="S83" s="2" t="n">
+      <c r="Y83" s="2" t="n">
         <v>41060</v>
       </c>
-      <c r="T83" s="2" t="n">
+      <c r="Z83" s="2" t="n">
         <v>41425</v>
       </c>
-      <c r="U83" s="2" t="n">
+      <c r="AA83" s="2" t="n">
         <v>40786</v>
       </c>
-      <c r="V83" s="2" t="n">
+      <c r="AB83" s="2" t="n">
         <v>41790</v>
       </c>
-      <c r="W83" s="2" t="n">
+      <c r="AC83" s="2" t="n">
         <v>40877</v>
       </c>
-      <c r="X83" t="inlineStr">
+      <c r="AD83" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y83" t="inlineStr">
+      <c r="AE83" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z83" t="inlineStr">
+      <c r="AF83" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -7673,35 +9179,53 @@
       <c r="Q84" t="n">
         <v>200.2736348328121</v>
       </c>
-      <c r="R84" s="2" t="n">
+      <c r="R84" t="n">
+        <v>-1.35009276846018</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1.354711351546844</v>
+      </c>
+      <c r="T84" t="n">
+        <v>13.94688916183136</v>
+      </c>
+      <c r="U84" t="n">
+        <v>23.47968166255128</v>
+      </c>
+      <c r="V84" t="n">
+        <v>46.35420066583981</v>
+      </c>
+      <c r="W84" t="n">
+        <v>-3.940359045401967</v>
+      </c>
+      <c r="X84" s="2" t="n">
         <v>40694</v>
       </c>
-      <c r="S84" s="2" t="n">
+      <c r="Y84" s="2" t="n">
         <v>40694</v>
       </c>
-      <c r="T84" s="2" t="n">
+      <c r="Z84" s="2" t="n">
         <v>40694</v>
       </c>
-      <c r="U84" s="2" t="n">
+      <c r="AA84" s="2" t="n">
         <v>40694</v>
       </c>
-      <c r="V84" s="2" t="n">
+      <c r="AB84" s="2" t="n">
         <v>40694</v>
       </c>
-      <c r="W84" s="2" t="n">
+      <c r="AC84" s="2" t="n">
         <v>40694</v>
       </c>
-      <c r="X84" t="inlineStr">
+      <c r="AD84" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y84" t="inlineStr">
+      <c r="AE84" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z84" t="inlineStr">
+      <c r="AF84" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -7759,35 +9283,53 @@
       <c r="Q85" t="n">
         <v>18.3578846173104</v>
       </c>
-      <c r="R85" s="2" t="n">
+      <c r="R85" t="n">
+        <v>-1.825750817722268</v>
+      </c>
+      <c r="S85" t="n">
+        <v>-9.389681831697883</v>
+      </c>
+      <c r="T85" t="n">
+        <v>-7.303003270889088</v>
+      </c>
+      <c r="U85" t="n">
+        <v>-2.592179601546247</v>
+      </c>
+      <c r="V85" t="n">
+        <v>21.22658340767172</v>
+      </c>
+      <c r="W85" t="n">
+        <v>42.99509366636931</v>
+      </c>
+      <c r="X85" s="2" t="n">
         <v>40724</v>
       </c>
-      <c r="S85" s="2" t="n">
+      <c r="Y85" s="2" t="n">
         <v>41060</v>
       </c>
-      <c r="T85" s="2" t="n">
+      <c r="Z85" s="2" t="n">
         <v>41425</v>
       </c>
-      <c r="U85" s="2" t="n">
+      <c r="AA85" s="2" t="n">
         <v>40786</v>
       </c>
-      <c r="V85" s="2" t="n">
+      <c r="AB85" s="2" t="n">
         <v>41790</v>
       </c>
-      <c r="W85" s="2" t="n">
+      <c r="AC85" s="2" t="n">
         <v>40877</v>
       </c>
-      <c r="X85" t="inlineStr">
+      <c r="AD85" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y85" t="inlineStr">
+      <c r="AE85" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z85" t="inlineStr">
+      <c r="AF85" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -7845,35 +9387,53 @@
       <c r="Q86" t="n">
         <v>40.40983606557377</v>
       </c>
-      <c r="R86" s="2" t="n">
+      <c r="R86" t="n">
+        <v>0.7068310525498165</v>
+      </c>
+      <c r="S86" t="n">
+        <v>-1.005087910486095</v>
+      </c>
+      <c r="T86" t="n">
+        <v>4.700622540670698</v>
+      </c>
+      <c r="U86" t="n">
+        <v>13.40479162856531</v>
+      </c>
+      <c r="V86" t="n">
+        <v>13.40208644763207</v>
+      </c>
+      <c r="W86" t="n">
+        <v>27.89794637252266</v>
+      </c>
+      <c r="X86" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="S86" s="2" t="n">
+      <c r="Y86" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="T86" s="2" t="n">
+      <c r="Z86" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="U86" s="2" t="n">
+      <c r="AA86" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="V86" s="2" t="n">
+      <c r="AB86" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="W86" s="2" t="n">
+      <c r="AC86" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="X86" t="inlineStr">
+      <c r="AD86" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y86" t="inlineStr">
+      <c r="AE86" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z86" t="inlineStr">
+      <c r="AF86" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -7931,35 +9491,53 @@
       <c r="Q87" t="n">
         <v>16.17046117921775</v>
       </c>
-      <c r="R87" s="2" t="n">
+      <c r="R87" t="n">
+        <v>5.042806358199106</v>
+      </c>
+      <c r="S87" t="n">
+        <v>10.02671453312672</v>
+      </c>
+      <c r="T87" t="n">
+        <v>12.62734979210343</v>
+      </c>
+      <c r="U87" t="n">
+        <v>29.60124527587487</v>
+      </c>
+      <c r="V87" t="n">
+        <v>44.36365421157069</v>
+      </c>
+      <c r="W87" t="n">
+        <v>43.31470561425897</v>
+      </c>
+      <c r="X87" s="2" t="n">
         <v>41305</v>
       </c>
-      <c r="S87" s="2" t="n">
+      <c r="Y87" s="2" t="n">
         <v>41639</v>
       </c>
-      <c r="T87" s="2" t="n">
+      <c r="Z87" s="2" t="n">
         <v>42004</v>
       </c>
-      <c r="U87" s="2" t="n">
+      <c r="AA87" s="2" t="n">
         <v>41364</v>
       </c>
-      <c r="V87" s="2" t="n">
+      <c r="AB87" s="2" t="n">
         <v>42369</v>
       </c>
-      <c r="W87" s="2" t="n">
+      <c r="AC87" s="2" t="n">
         <v>41455</v>
       </c>
-      <c r="X87" t="inlineStr">
+      <c r="AD87" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y87" t="inlineStr">
+      <c r="AE87" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z87" t="inlineStr">
+      <c r="AF87" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -8017,35 +9595,53 @@
       <c r="Q88" t="n">
         <v>80.5526580309898</v>
       </c>
-      <c r="R88" s="2" t="n">
+      <c r="R88" t="n">
+        <v>0.7068310525498165</v>
+      </c>
+      <c r="S88" t="n">
+        <v>-1.005087910486095</v>
+      </c>
+      <c r="T88" t="n">
+        <v>4.700622540670698</v>
+      </c>
+      <c r="U88" t="n">
+        <v>13.40479162856531</v>
+      </c>
+      <c r="V88" t="n">
+        <v>13.40208644763207</v>
+      </c>
+      <c r="W88" t="n">
+        <v>27.89794637252266</v>
+      </c>
+      <c r="X88" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="S88" s="2" t="n">
+      <c r="Y88" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="T88" s="2" t="n">
+      <c r="Z88" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="U88" s="2" t="n">
+      <c r="AA88" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="V88" s="2" t="n">
+      <c r="AB88" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="W88" s="2" t="n">
+      <c r="AC88" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="X88" t="inlineStr">
+      <c r="AD88" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y88" t="inlineStr">
+      <c r="AE88" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z88" t="inlineStr">
+      <c r="AF88" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -8103,35 +9699,53 @@
       <c r="Q89" t="n">
         <v>45.48319327731093</v>
       </c>
-      <c r="R89" s="2" t="n">
+      <c r="R89" t="n">
+        <v>5.042806358199106</v>
+      </c>
+      <c r="S89" t="n">
+        <v>10.02671453312672</v>
+      </c>
+      <c r="T89" t="n">
+        <v>12.62734979210343</v>
+      </c>
+      <c r="U89" t="n">
+        <v>29.60124527587487</v>
+      </c>
+      <c r="V89" t="n">
+        <v>44.36365421157069</v>
+      </c>
+      <c r="W89" t="n">
+        <v>43.31470561425897</v>
+      </c>
+      <c r="X89" s="2" t="n">
         <v>41305</v>
       </c>
-      <c r="S89" s="2" t="n">
+      <c r="Y89" s="2" t="n">
         <v>41639</v>
       </c>
-      <c r="T89" s="2" t="n">
+      <c r="Z89" s="2" t="n">
         <v>42004</v>
       </c>
-      <c r="U89" s="2" t="n">
+      <c r="AA89" s="2" t="n">
         <v>41364</v>
       </c>
-      <c r="V89" s="2" t="n">
+      <c r="AB89" s="2" t="n">
         <v>42369</v>
       </c>
-      <c r="W89" s="2" t="n">
+      <c r="AC89" s="2" t="n">
         <v>41455</v>
       </c>
-      <c r="X89" t="inlineStr">
+      <c r="AD89" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y89" t="inlineStr">
+      <c r="AE89" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z89" t="inlineStr">
+      <c r="AF89" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -8189,35 +9803,53 @@
       <c r="Q90" t="n">
         <v>221.5610859728506</v>
       </c>
-      <c r="R90" s="2" t="n">
+      <c r="R90" t="n">
+        <v>-0.418851206252774</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4.391342044019902</v>
+      </c>
+      <c r="T90" t="n">
+        <v>5.033592996740182</v>
+      </c>
+      <c r="U90" t="n">
+        <v>11.39063818736611</v>
+      </c>
+      <c r="V90" t="n">
+        <v>44.36365421157069</v>
+      </c>
+      <c r="W90" t="n">
+        <v>63.71530124601429</v>
+      </c>
+      <c r="X90" s="2" t="n">
         <v>42004</v>
       </c>
-      <c r="S90" s="2" t="n">
+      <c r="Y90" s="2" t="n">
         <v>42004</v>
       </c>
-      <c r="T90" s="2" t="n">
+      <c r="Z90" s="2" t="n">
         <v>42004</v>
       </c>
-      <c r="U90" s="2" t="n">
+      <c r="AA90" s="2" t="n">
         <v>42004</v>
       </c>
-      <c r="V90" s="2" t="n">
+      <c r="AB90" s="2" t="n">
         <v>42004</v>
       </c>
-      <c r="W90" s="2" t="n">
+      <c r="AC90" s="2" t="n">
         <v>42004</v>
       </c>
-      <c r="X90" t="inlineStr">
+      <c r="AD90" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y90" t="inlineStr">
+      <c r="AE90" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z90" t="inlineStr">
+      <c r="AF90" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -8275,35 +9907,53 @@
       <c r="Q91" t="n">
         <v>32.94519102230354</v>
       </c>
-      <c r="R91" s="2" t="n">
+      <c r="R91" t="n">
+        <v>-3.104084705425231</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.4366409247656409</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0.2044781193841389</v>
+      </c>
+      <c r="U91" t="n">
+        <v>-0.7266015833697623</v>
+      </c>
+      <c r="V91" t="n">
+        <v>8.739132546505408</v>
+      </c>
+      <c r="W91" t="n">
+        <v>29.85623391131186</v>
+      </c>
+      <c r="X91" s="2" t="n">
         <v>42035</v>
       </c>
-      <c r="S91" s="2" t="n">
+      <c r="Y91" s="2" t="n">
         <v>42369</v>
       </c>
-      <c r="T91" s="2" t="n">
+      <c r="Z91" s="2" t="n">
         <v>42735</v>
       </c>
-      <c r="U91" s="2" t="n">
+      <c r="AA91" s="2" t="n">
         <v>42094</v>
       </c>
-      <c r="V91" s="2" t="n">
+      <c r="AB91" s="2" t="n">
         <v>43100</v>
       </c>
-      <c r="W91" s="2" t="n">
+      <c r="AC91" s="2" t="n">
         <v>42185</v>
       </c>
-      <c r="X91" t="inlineStr">
+      <c r="AD91" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y91" t="inlineStr">
+      <c r="AE91" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z91" t="inlineStr">
+      <c r="AF91" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -8361,35 +10011,53 @@
       <c r="Q92" t="n">
         <v>82.57933828494259</v>
       </c>
-      <c r="R92" s="2" t="n">
+      <c r="R92" t="n">
+        <v>-0.418851206252774</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4.391342044019902</v>
+      </c>
+      <c r="T92" t="n">
+        <v>5.033592996740182</v>
+      </c>
+      <c r="U92" t="n">
+        <v>11.39063818736611</v>
+      </c>
+      <c r="V92" t="n">
+        <v>44.36365421157069</v>
+      </c>
+      <c r="W92" t="n">
+        <v>63.71530124601429</v>
+      </c>
+      <c r="X92" s="2" t="n">
         <v>42004</v>
       </c>
-      <c r="S92" s="2" t="n">
+      <c r="Y92" s="2" t="n">
         <v>42004</v>
       </c>
-      <c r="T92" s="2" t="n">
+      <c r="Z92" s="2" t="n">
         <v>42004</v>
       </c>
-      <c r="U92" s="2" t="n">
+      <c r="AA92" s="2" t="n">
         <v>42004</v>
       </c>
-      <c r="V92" s="2" t="n">
+      <c r="AB92" s="2" t="n">
         <v>42004</v>
       </c>
-      <c r="W92" s="2" t="n">
+      <c r="AC92" s="2" t="n">
         <v>42004</v>
       </c>
-      <c r="X92" t="inlineStr">
+      <c r="AD92" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y92" t="inlineStr">
+      <c r="AE92" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z92" t="inlineStr">
+      <c r="AF92" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -8447,35 +10115,53 @@
       <c r="Q93" t="n">
         <v>-31.76775147928994</v>
       </c>
-      <c r="R93" s="2" t="n">
+      <c r="R93" t="n">
+        <v>-3.104084705425231</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.4366409247656409</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0.2044781193841389</v>
+      </c>
+      <c r="U93" t="n">
+        <v>-0.7266015833697623</v>
+      </c>
+      <c r="V93" t="n">
+        <v>8.739132546505408</v>
+      </c>
+      <c r="W93" t="n">
+        <v>29.85623391131186</v>
+      </c>
+      <c r="X93" s="2" t="n">
         <v>42035</v>
       </c>
-      <c r="S93" s="2" t="n">
+      <c r="Y93" s="2" t="n">
         <v>42369</v>
       </c>
-      <c r="T93" s="2" t="n">
+      <c r="Z93" s="2" t="n">
         <v>42735</v>
       </c>
-      <c r="U93" s="2" t="n">
+      <c r="AA93" s="2" t="n">
         <v>42094</v>
       </c>
-      <c r="V93" s="2" t="n">
+      <c r="AB93" s="2" t="n">
         <v>43100</v>
       </c>
-      <c r="W93" s="2" t="n">
+      <c r="AC93" s="2" t="n">
         <v>42185</v>
       </c>
-      <c r="X93" t="inlineStr">
+      <c r="AD93" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y93" t="inlineStr">
+      <c r="AE93" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z93" t="inlineStr">
+      <c r="AF93" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -8533,35 +10219,53 @@
       <c r="Q94" t="n">
         <v>127.4185463659148</v>
       </c>
-      <c r="R94" s="2" t="n">
+      <c r="R94" t="n">
+        <v>-0.7858162422056802</v>
+      </c>
+      <c r="S94" t="n">
+        <v>-0.5736828632948286</v>
+      </c>
+      <c r="T94" t="n">
+        <v>4.989347155531529</v>
+      </c>
+      <c r="U94" t="n">
+        <v>28.12915369017474</v>
+      </c>
+      <c r="V94" t="n">
+        <v>43.65400513422965</v>
+      </c>
+      <c r="W94" t="n">
+        <v>3.175000000000008</v>
+      </c>
+      <c r="X94" s="2" t="n">
         <v>40724</v>
       </c>
-      <c r="S94" s="2" t="n">
+      <c r="Y94" s="2" t="n">
         <v>40724</v>
       </c>
-      <c r="T94" s="2" t="n">
+      <c r="Z94" s="2" t="n">
         <v>40724</v>
       </c>
-      <c r="U94" s="2" t="n">
+      <c r="AA94" s="2" t="n">
         <v>40724</v>
       </c>
-      <c r="V94" s="2" t="n">
+      <c r="AB94" s="2" t="n">
         <v>40724</v>
       </c>
-      <c r="W94" s="2" t="n">
+      <c r="AC94" s="2" t="n">
         <v>40724</v>
       </c>
-      <c r="X94" t="inlineStr">
+      <c r="AD94" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y94" t="inlineStr">
+      <c r="AE94" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z94" t="inlineStr">
+      <c r="AF94" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -8619,35 +10323,53 @@
       <c r="Q95" t="n">
         <v>31.80515759312321</v>
       </c>
-      <c r="R95" s="2" t="n">
+      <c r="R95" t="n">
+        <v>-2.147443663678226</v>
+      </c>
+      <c r="S95" t="n">
+        <v>-14.32790162345529</v>
+      </c>
+      <c r="T95" t="n">
+        <v>-4.77268597043859</v>
+      </c>
+      <c r="U95" t="n">
+        <v>3.143930215653015</v>
+      </c>
+      <c r="V95" t="n">
+        <v>21.62890719651077</v>
+      </c>
+      <c r="W95" t="n">
+        <v>48.43030651805184</v>
+      </c>
+      <c r="X95" s="2" t="n">
         <v>40754</v>
       </c>
-      <c r="S95" s="2" t="n">
+      <c r="Y95" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="T95" s="2" t="n">
+      <c r="Z95" s="2" t="n">
         <v>41455</v>
       </c>
-      <c r="U95" s="2" t="n">
+      <c r="AA95" s="2" t="n">
         <v>40816</v>
       </c>
-      <c r="V95" s="2" t="n">
+      <c r="AB95" s="2" t="n">
         <v>41820</v>
       </c>
-      <c r="W95" s="2" t="n">
+      <c r="AC95" s="2" t="n">
         <v>40907</v>
       </c>
-      <c r="X95" t="inlineStr">
+      <c r="AD95" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y95" t="inlineStr">
+      <c r="AE95" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z95" t="inlineStr">
+      <c r="AF95" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -8705,35 +10427,53 @@
       <c r="Q96" t="n">
         <v>-63.49650349650351</v>
       </c>
-      <c r="R96" s="2" t="n">
+      <c r="R96" t="n">
+        <v>-0.7858162422056802</v>
+      </c>
+      <c r="S96" t="n">
+        <v>-0.5736828632948286</v>
+      </c>
+      <c r="T96" t="n">
+        <v>4.989347155531529</v>
+      </c>
+      <c r="U96" t="n">
+        <v>28.12915369017474</v>
+      </c>
+      <c r="V96" t="n">
+        <v>43.65400513422965</v>
+      </c>
+      <c r="W96" t="n">
+        <v>3.175000000000008</v>
+      </c>
+      <c r="X96" s="2" t="n">
         <v>40724</v>
       </c>
-      <c r="S96" s="2" t="n">
+      <c r="Y96" s="2" t="n">
         <v>40724</v>
       </c>
-      <c r="T96" s="2" t="n">
+      <c r="Z96" s="2" t="n">
         <v>40724</v>
       </c>
-      <c r="U96" s="2" t="n">
+      <c r="AA96" s="2" t="n">
         <v>40724</v>
       </c>
-      <c r="V96" s="2" t="n">
+      <c r="AB96" s="2" t="n">
         <v>40724</v>
       </c>
-      <c r="W96" s="2" t="n">
+      <c r="AC96" s="2" t="n">
         <v>40724</v>
       </c>
-      <c r="X96" t="inlineStr">
+      <c r="AD96" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y96" t="inlineStr">
+      <c r="AE96" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z96" t="inlineStr">
+      <c r="AF96" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -8791,35 +10531,53 @@
       <c r="Q97" t="n">
         <v>39.08045977011494</v>
       </c>
-      <c r="R97" s="2" t="n">
+      <c r="R97" t="n">
+        <v>-2.147443663678226</v>
+      </c>
+      <c r="S97" t="n">
+        <v>-14.32790162345529</v>
+      </c>
+      <c r="T97" t="n">
+        <v>-4.77268597043859</v>
+      </c>
+      <c r="U97" t="n">
+        <v>3.143930215653015</v>
+      </c>
+      <c r="V97" t="n">
+        <v>21.62890719651077</v>
+      </c>
+      <c r="W97" t="n">
+        <v>48.43030651805184</v>
+      </c>
+      <c r="X97" s="2" t="n">
         <v>40754</v>
       </c>
-      <c r="S97" s="2" t="n">
+      <c r="Y97" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="T97" s="2" t="n">
+      <c r="Z97" s="2" t="n">
         <v>41455</v>
       </c>
-      <c r="U97" s="2" t="n">
+      <c r="AA97" s="2" t="n">
         <v>40816</v>
       </c>
-      <c r="V97" s="2" t="n">
+      <c r="AB97" s="2" t="n">
         <v>41820</v>
       </c>
-      <c r="W97" s="2" t="n">
+      <c r="AC97" s="2" t="n">
         <v>40907</v>
       </c>
-      <c r="X97" t="inlineStr">
+      <c r="AD97" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y97" t="inlineStr">
+      <c r="AE97" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z97" t="inlineStr">
+      <c r="AF97" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -8877,35 +10635,53 @@
       <c r="Q98" t="n">
         <v>82.91113791716928</v>
       </c>
-      <c r="R98" s="2" t="n">
+      <c r="R98" t="n">
+        <v>0.7068310525498165</v>
+      </c>
+      <c r="S98" t="n">
+        <v>-1.005087910486095</v>
+      </c>
+      <c r="T98" t="n">
+        <v>4.700622540670698</v>
+      </c>
+      <c r="U98" t="n">
+        <v>13.40479162856531</v>
+      </c>
+      <c r="V98" t="n">
+        <v>13.40208644763207</v>
+      </c>
+      <c r="W98" t="n">
+        <v>27.89794637252266</v>
+      </c>
+      <c r="X98" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="S98" s="2" t="n">
+      <c r="Y98" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="T98" s="2" t="n">
+      <c r="Z98" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="U98" s="2" t="n">
+      <c r="AA98" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="V98" s="2" t="n">
+      <c r="AB98" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="W98" s="2" t="n">
+      <c r="AC98" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="X98" t="inlineStr">
+      <c r="AD98" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y98" t="inlineStr">
+      <c r="AE98" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z98" t="inlineStr">
+      <c r="AF98" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -8963,35 +10739,53 @@
       <c r="Q99" t="n">
         <v>-22.29061332160915</v>
       </c>
-      <c r="R99" s="2" t="n">
+      <c r="R99" t="n">
+        <v>5.042806358199106</v>
+      </c>
+      <c r="S99" t="n">
+        <v>10.02671453312672</v>
+      </c>
+      <c r="T99" t="n">
+        <v>12.62734979210343</v>
+      </c>
+      <c r="U99" t="n">
+        <v>29.60124527587487</v>
+      </c>
+      <c r="V99" t="n">
+        <v>44.36365421157069</v>
+      </c>
+      <c r="W99" t="n">
+        <v>43.31470561425897</v>
+      </c>
+      <c r="X99" s="2" t="n">
         <v>41305</v>
       </c>
-      <c r="S99" s="2" t="n">
+      <c r="Y99" s="2" t="n">
         <v>41639</v>
       </c>
-      <c r="T99" s="2" t="n">
+      <c r="Z99" s="2" t="n">
         <v>42004</v>
       </c>
-      <c r="U99" s="2" t="n">
+      <c r="AA99" s="2" t="n">
         <v>41364</v>
       </c>
-      <c r="V99" s="2" t="n">
+      <c r="AB99" s="2" t="n">
         <v>42369</v>
       </c>
-      <c r="W99" s="2" t="n">
+      <c r="AC99" s="2" t="n">
         <v>41455</v>
       </c>
-      <c r="X99" t="inlineStr">
+      <c r="AD99" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y99" t="inlineStr">
+      <c r="AE99" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z99" t="inlineStr">
+      <c r="AF99" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -9049,35 +10843,53 @@
       <c r="Q100" t="n">
         <v>-35.32608695652175</v>
       </c>
-      <c r="R100" s="2" t="n">
+      <c r="R100" t="n">
+        <v>0.7068310525498165</v>
+      </c>
+      <c r="S100" t="n">
+        <v>-1.005087910486095</v>
+      </c>
+      <c r="T100" t="n">
+        <v>4.700622540670698</v>
+      </c>
+      <c r="U100" t="n">
+        <v>13.40479162856531</v>
+      </c>
+      <c r="V100" t="n">
+        <v>13.40208644763207</v>
+      </c>
+      <c r="W100" t="n">
+        <v>27.89794637252266</v>
+      </c>
+      <c r="X100" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="S100" s="2" t="n">
+      <c r="Y100" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="T100" s="2" t="n">
+      <c r="Z100" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="U100" s="2" t="n">
+      <c r="AA100" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="V100" s="2" t="n">
+      <c r="AB100" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="W100" s="2" t="n">
+      <c r="AC100" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="X100" t="inlineStr">
+      <c r="AD100" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y100" t="inlineStr">
+      <c r="AE100" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z100" t="inlineStr">
+      <c r="AF100" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -9135,35 +10947,53 @@
       <c r="Q101" t="n">
         <v>-22.78151260504201</v>
       </c>
-      <c r="R101" s="2" t="n">
+      <c r="R101" t="n">
+        <v>5.042806358199106</v>
+      </c>
+      <c r="S101" t="n">
+        <v>10.02671453312672</v>
+      </c>
+      <c r="T101" t="n">
+        <v>12.62734979210343</v>
+      </c>
+      <c r="U101" t="n">
+        <v>29.60124527587487</v>
+      </c>
+      <c r="V101" t="n">
+        <v>44.36365421157069</v>
+      </c>
+      <c r="W101" t="n">
+        <v>43.31470561425897</v>
+      </c>
+      <c r="X101" s="2" t="n">
         <v>41305</v>
       </c>
-      <c r="S101" s="2" t="n">
+      <c r="Y101" s="2" t="n">
         <v>41639</v>
       </c>
-      <c r="T101" s="2" t="n">
+      <c r="Z101" s="2" t="n">
         <v>42004</v>
       </c>
-      <c r="U101" s="2" t="n">
+      <c r="AA101" s="2" t="n">
         <v>41364</v>
       </c>
-      <c r="V101" s="2" t="n">
+      <c r="AB101" s="2" t="n">
         <v>42369</v>
       </c>
-      <c r="W101" s="2" t="n">
+      <c r="AC101" s="2" t="n">
         <v>41455</v>
       </c>
-      <c r="X101" t="inlineStr">
+      <c r="AD101" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y101" t="inlineStr">
+      <c r="AE101" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z101" t="inlineStr">
+      <c r="AF101" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -9221,35 +11051,53 @@
       <c r="Q102" t="n">
         <v>-5.89371980676328</v>
       </c>
-      <c r="R102" s="2" t="n">
+      <c r="R102" t="n">
+        <v>0.7573829479134566</v>
+      </c>
+      <c r="S102" t="n">
+        <v>10.29262013180393</v>
+      </c>
+      <c r="T102" t="n">
+        <v>-6.234788716290173</v>
+      </c>
+      <c r="U102" t="n">
+        <v>-13.04268791468477</v>
+      </c>
+      <c r="V102" t="n">
+        <v>-21.85945210141229</v>
+      </c>
+      <c r="W102" t="n">
+        <v>-6.601693743237644</v>
+      </c>
+      <c r="X102" s="2" t="n">
         <v>37256</v>
       </c>
-      <c r="S102" s="2" t="n">
+      <c r="Y102" s="2" t="n">
         <v>37256</v>
       </c>
-      <c r="T102" s="2" t="n">
+      <c r="Z102" s="2" t="n">
         <v>37256</v>
       </c>
-      <c r="U102" s="2" t="n">
+      <c r="AA102" s="2" t="n">
         <v>37256</v>
       </c>
-      <c r="V102" s="2" t="n">
+      <c r="AB102" s="2" t="n">
         <v>37256</v>
       </c>
-      <c r="W102" s="2" t="n">
+      <c r="AC102" s="2" t="n">
         <v>37256</v>
       </c>
-      <c r="X102" t="inlineStr">
+      <c r="AD102" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y102" t="inlineStr">
+      <c r="AE102" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z102" t="inlineStr">
+      <c r="AF102" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -9307,35 +11155,53 @@
       <c r="Q103" t="n">
         <v>56.67351129363448</v>
       </c>
-      <c r="R103" s="2" t="n">
+      <c r="R103" t="n">
+        <v>-1.556511741342057</v>
+      </c>
+      <c r="S103" t="n">
+        <v>-0.06010034143960588</v>
+      </c>
+      <c r="T103" t="n">
+        <v>-13.78562469514319</v>
+      </c>
+      <c r="U103" t="n">
+        <v>-23.36596752839522</v>
+      </c>
+      <c r="V103" t="n">
+        <v>-3.149606299212586</v>
+      </c>
+      <c r="W103" t="n">
+        <v>5.56058811232668</v>
+      </c>
+      <c r="X103" s="2" t="n">
         <v>37287</v>
       </c>
-      <c r="S103" s="2" t="n">
+      <c r="Y103" s="2" t="n">
         <v>37621</v>
       </c>
-      <c r="T103" s="2" t="n">
+      <c r="Z103" s="2" t="n">
         <v>37986</v>
       </c>
-      <c r="U103" s="2" t="n">
+      <c r="AA103" s="2" t="n">
         <v>37346</v>
       </c>
-      <c r="V103" s="2" t="n">
+      <c r="AB103" s="2" t="n">
         <v>38352</v>
       </c>
-      <c r="W103" s="2" t="n">
+      <c r="AC103" s="2" t="n">
         <v>37437</v>
       </c>
-      <c r="X103" t="inlineStr">
+      <c r="AD103" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y103" t="inlineStr">
+      <c r="AE103" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z103" t="inlineStr">
+      <c r="AF103" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -9393,35 +11259,53 @@
       <c r="Q104" t="n">
         <v>-24.58386683738796</v>
       </c>
-      <c r="R104" s="2" t="n">
+      <c r="R104" t="n">
+        <v>-1.556511741342057</v>
+      </c>
+      <c r="S104" t="n">
+        <v>-0.06010034143960588</v>
+      </c>
+      <c r="T104" t="n">
+        <v>-13.78562469514319</v>
+      </c>
+      <c r="U104" t="n">
+        <v>-23.36596752839522</v>
+      </c>
+      <c r="V104" t="n">
+        <v>-3.149606299212586</v>
+      </c>
+      <c r="W104" t="n">
+        <v>5.56058811232668</v>
+      </c>
+      <c r="X104" s="2" t="n">
         <v>37287</v>
       </c>
-      <c r="S104" s="2" t="n">
+      <c r="Y104" s="2" t="n">
         <v>37621</v>
       </c>
-      <c r="T104" s="2" t="n">
+      <c r="Z104" s="2" t="n">
         <v>37986</v>
       </c>
-      <c r="U104" s="2" t="n">
+      <c r="AA104" s="2" t="n">
         <v>37346</v>
       </c>
-      <c r="V104" s="2" t="n">
+      <c r="AB104" s="2" t="n">
         <v>38352</v>
       </c>
-      <c r="W104" s="2" t="n">
+      <c r="AC104" s="2" t="n">
         <v>37437</v>
       </c>
-      <c r="X104" t="inlineStr">
+      <c r="AD104" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y104" t="inlineStr">
+      <c r="AE104" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z104" t="inlineStr">
+      <c r="AF104" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -9479,35 +11363,53 @@
       <c r="Q105" t="n">
         <v>-51.93846153846155</v>
       </c>
-      <c r="R105" s="2" t="n">
+      <c r="R105" t="n">
+        <v>0.7573829479134566</v>
+      </c>
+      <c r="S105" t="n">
+        <v>10.29262013180393</v>
+      </c>
+      <c r="T105" t="n">
+        <v>-6.234788716290173</v>
+      </c>
+      <c r="U105" t="n">
+        <v>-13.04268791468477</v>
+      </c>
+      <c r="V105" t="n">
+        <v>-21.85945210141229</v>
+      </c>
+      <c r="W105" t="n">
+        <v>-6.601693743237644</v>
+      </c>
+      <c r="X105" s="2" t="n">
         <v>37256</v>
       </c>
-      <c r="S105" s="2" t="n">
+      <c r="Y105" s="2" t="n">
         <v>37256</v>
       </c>
-      <c r="T105" s="2" t="n">
+      <c r="Z105" s="2" t="n">
         <v>37256</v>
       </c>
-      <c r="U105" s="2" t="n">
+      <c r="AA105" s="2" t="n">
         <v>37256</v>
       </c>
-      <c r="V105" s="2" t="n">
+      <c r="AB105" s="2" t="n">
         <v>37256</v>
       </c>
-      <c r="W105" s="2" t="n">
+      <c r="AC105" s="2" t="n">
         <v>37256</v>
       </c>
-      <c r="X105" t="inlineStr">
+      <c r="AD105" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y105" t="inlineStr">
+      <c r="AE105" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z105" t="inlineStr">
+      <c r="AF105" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -9565,35 +11467,53 @@
       <c r="Q106" t="n">
         <v>5.672969966629586</v>
       </c>
-      <c r="R106" s="2" t="n">
+      <c r="R106" t="n">
+        <v>-1.35009276846018</v>
+      </c>
+      <c r="S106" t="n">
+        <v>1.354711351546844</v>
+      </c>
+      <c r="T106" t="n">
+        <v>13.94688916183136</v>
+      </c>
+      <c r="U106" t="n">
+        <v>23.47968166255128</v>
+      </c>
+      <c r="V106" t="n">
+        <v>46.35420066583981</v>
+      </c>
+      <c r="W106" t="n">
+        <v>-3.940359045401967</v>
+      </c>
+      <c r="X106" s="2" t="n">
         <v>40694</v>
       </c>
-      <c r="S106" s="2" t="n">
+      <c r="Y106" s="2" t="n">
         <v>40694</v>
       </c>
-      <c r="T106" s="2" t="n">
+      <c r="Z106" s="2" t="n">
         <v>40694</v>
       </c>
-      <c r="U106" s="2" t="n">
+      <c r="AA106" s="2" t="n">
         <v>40694</v>
       </c>
-      <c r="V106" s="2" t="n">
+      <c r="AB106" s="2" t="n">
         <v>40694</v>
       </c>
-      <c r="W106" s="2" t="n">
+      <c r="AC106" s="2" t="n">
         <v>40694</v>
       </c>
-      <c r="X106" t="inlineStr">
+      <c r="AD106" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y106" t="inlineStr">
+      <c r="AE106" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z106" t="inlineStr">
+      <c r="AF106" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -9651,35 +11571,53 @@
       <c r="Q107" t="n">
         <v>22.21052631578947</v>
       </c>
-      <c r="R107" s="2" t="n">
+      <c r="R107" t="n">
+        <v>-1.825750817722268</v>
+      </c>
+      <c r="S107" t="n">
+        <v>-9.389681831697883</v>
+      </c>
+      <c r="T107" t="n">
+        <v>-7.303003270889088</v>
+      </c>
+      <c r="U107" t="n">
+        <v>-2.592179601546247</v>
+      </c>
+      <c r="V107" t="n">
+        <v>21.22658340767172</v>
+      </c>
+      <c r="W107" t="n">
+        <v>42.99509366636931</v>
+      </c>
+      <c r="X107" s="2" t="n">
         <v>40724</v>
       </c>
-      <c r="S107" s="2" t="n">
+      <c r="Y107" s="2" t="n">
         <v>41060</v>
       </c>
-      <c r="T107" s="2" t="n">
+      <c r="Z107" s="2" t="n">
         <v>41425</v>
       </c>
-      <c r="U107" s="2" t="n">
+      <c r="AA107" s="2" t="n">
         <v>40786</v>
       </c>
-      <c r="V107" s="2" t="n">
+      <c r="AB107" s="2" t="n">
         <v>41790</v>
       </c>
-      <c r="W107" s="2" t="n">
+      <c r="AC107" s="2" t="n">
         <v>40877</v>
       </c>
-      <c r="X107" t="inlineStr">
+      <c r="AD107" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y107" t="inlineStr">
+      <c r="AE107" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z107" t="inlineStr">
+      <c r="AF107" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -9737,35 +11675,53 @@
       <c r="Q108" t="n">
         <v>3.841931942919884</v>
       </c>
-      <c r="R108" s="2" t="n">
+      <c r="R108" t="n">
+        <v>-1.35009276846018</v>
+      </c>
+      <c r="S108" t="n">
+        <v>1.354711351546844</v>
+      </c>
+      <c r="T108" t="n">
+        <v>13.94688916183136</v>
+      </c>
+      <c r="U108" t="n">
+        <v>23.47968166255128</v>
+      </c>
+      <c r="V108" t="n">
+        <v>46.35420066583981</v>
+      </c>
+      <c r="W108" t="n">
+        <v>-3.940359045401967</v>
+      </c>
+      <c r="X108" s="2" t="n">
         <v>40694</v>
       </c>
-      <c r="S108" s="2" t="n">
+      <c r="Y108" s="2" t="n">
         <v>40694</v>
       </c>
-      <c r="T108" s="2" t="n">
+      <c r="Z108" s="2" t="n">
         <v>40694</v>
       </c>
-      <c r="U108" s="2" t="n">
+      <c r="AA108" s="2" t="n">
         <v>40694</v>
       </c>
-      <c r="V108" s="2" t="n">
+      <c r="AB108" s="2" t="n">
         <v>40694</v>
       </c>
-      <c r="W108" s="2" t="n">
+      <c r="AC108" s="2" t="n">
         <v>40694</v>
       </c>
-      <c r="X108" t="inlineStr">
+      <c r="AD108" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y108" t="inlineStr">
+      <c r="AE108" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z108" t="inlineStr">
+      <c r="AF108" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -9823,35 +11779,53 @@
       <c r="Q109" t="n">
         <v>16.59619450317123</v>
       </c>
-      <c r="R109" s="2" t="n">
+      <c r="R109" t="n">
+        <v>-1.825750817722268</v>
+      </c>
+      <c r="S109" t="n">
+        <v>-9.389681831697883</v>
+      </c>
+      <c r="T109" t="n">
+        <v>-7.303003270889088</v>
+      </c>
+      <c r="U109" t="n">
+        <v>-2.592179601546247</v>
+      </c>
+      <c r="V109" t="n">
+        <v>21.22658340767172</v>
+      </c>
+      <c r="W109" t="n">
+        <v>42.99509366636931</v>
+      </c>
+      <c r="X109" s="2" t="n">
         <v>40724</v>
       </c>
-      <c r="S109" s="2" t="n">
+      <c r="Y109" s="2" t="n">
         <v>41060</v>
       </c>
-      <c r="T109" s="2" t="n">
+      <c r="Z109" s="2" t="n">
         <v>41425</v>
       </c>
-      <c r="U109" s="2" t="n">
+      <c r="AA109" s="2" t="n">
         <v>40786</v>
       </c>
-      <c r="V109" s="2" t="n">
+      <c r="AB109" s="2" t="n">
         <v>41790</v>
       </c>
-      <c r="W109" s="2" t="n">
+      <c r="AC109" s="2" t="n">
         <v>40877</v>
       </c>
-      <c r="X109" t="inlineStr">
+      <c r="AD109" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y109" t="inlineStr">
+      <c r="AE109" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z109" t="inlineStr">
+      <c r="AF109" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -9909,35 +11883,53 @@
       <c r="Q110" t="n">
         <v>46.57994125052456</v>
       </c>
-      <c r="R110" s="2" t="n">
+      <c r="R110" t="n">
+        <v>-2.147443663678226</v>
+      </c>
+      <c r="S110" t="n">
+        <v>-5.23096779871077</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0.4789599726308651</v>
+      </c>
+      <c r="U110" t="n">
+        <v>17.30936819172114</v>
+      </c>
+      <c r="V110" t="n">
+        <v>30.8664479280593</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.964683046915674</v>
+      </c>
+      <c r="X110" s="2" t="n">
         <v>40755</v>
       </c>
-      <c r="S110" s="2" t="n">
+      <c r="Y110" s="2" t="n">
         <v>40755</v>
       </c>
-      <c r="T110" s="2" t="n">
+      <c r="Z110" s="2" t="n">
         <v>40755</v>
       </c>
-      <c r="U110" s="2" t="n">
+      <c r="AA110" s="2" t="n">
         <v>40755</v>
       </c>
-      <c r="V110" s="2" t="n">
+      <c r="AB110" s="2" t="n">
         <v>40755</v>
       </c>
-      <c r="W110" s="2" t="n">
+      <c r="AC110" s="2" t="n">
         <v>40755</v>
       </c>
-      <c r="X110" t="inlineStr">
+      <c r="AD110" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y110" t="inlineStr">
+      <c r="AE110" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z110" t="inlineStr">
+      <c r="AF110" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -9995,35 +11987,53 @@
       <c r="Q111" t="n">
         <v>131.4629258517034</v>
       </c>
-      <c r="R111" s="2" t="n">
+      <c r="R111" t="n">
+        <v>-5.679109790447881</v>
+      </c>
+      <c r="S111" t="n">
+        <v>-3.016374160398677</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1.557711950970387</v>
+      </c>
+      <c r="U111" t="n">
+        <v>6.735382424861483</v>
+      </c>
+      <c r="V111" t="n">
+        <v>30.44618813260285</v>
+      </c>
+      <c r="W111" t="n">
+        <v>49.40028476800694</v>
+      </c>
+      <c r="X111" s="2" t="n">
         <v>40786</v>
       </c>
-      <c r="S111" s="2" t="n">
+      <c r="Y111" s="2" t="n">
         <v>41121</v>
       </c>
-      <c r="T111" s="2" t="n">
+      <c r="Z111" s="2" t="n">
         <v>41486</v>
       </c>
-      <c r="U111" s="2" t="n">
+      <c r="AA111" s="2" t="n">
         <v>40847</v>
       </c>
-      <c r="V111" s="2" t="n">
+      <c r="AB111" s="2" t="n">
         <v>41851</v>
       </c>
-      <c r="W111" s="2" t="n">
+      <c r="AC111" s="2" t="n">
         <v>40939</v>
       </c>
-      <c r="X111" t="inlineStr">
+      <c r="AD111" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y111" t="inlineStr">
+      <c r="AE111" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z111" t="inlineStr">
+      <c r="AF111" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -10081,35 +12091,53 @@
       <c r="Q112" t="n">
         <v>-73.42857142857143</v>
       </c>
-      <c r="R112" s="2" t="n">
+      <c r="R112" t="n">
+        <v>-2.147443663678226</v>
+      </c>
+      <c r="S112" t="n">
+        <v>-5.23096779871077</v>
+      </c>
+      <c r="T112" t="n">
+        <v>0.4789599726308651</v>
+      </c>
+      <c r="U112" t="n">
+        <v>17.30936819172114</v>
+      </c>
+      <c r="V112" t="n">
+        <v>30.8664479280593</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.964683046915674</v>
+      </c>
+      <c r="X112" s="2" t="n">
         <v>40755</v>
       </c>
-      <c r="S112" s="2" t="n">
+      <c r="Y112" s="2" t="n">
         <v>40755</v>
       </c>
-      <c r="T112" s="2" t="n">
+      <c r="Z112" s="2" t="n">
         <v>40755</v>
       </c>
-      <c r="U112" s="2" t="n">
+      <c r="AA112" s="2" t="n">
         <v>40755</v>
       </c>
-      <c r="V112" s="2" t="n">
+      <c r="AB112" s="2" t="n">
         <v>40755</v>
       </c>
-      <c r="W112" s="2" t="n">
+      <c r="AC112" s="2" t="n">
         <v>40755</v>
       </c>
-      <c r="X112" t="inlineStr">
+      <c r="AD112" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y112" t="inlineStr">
+      <c r="AE112" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z112" t="inlineStr">
+      <c r="AF112" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -10167,35 +12195,53 @@
       <c r="Q113" t="n">
         <v>146.9534050179211</v>
       </c>
-      <c r="R113" s="2" t="n">
+      <c r="R113" t="n">
+        <v>-5.679109790447881</v>
+      </c>
+      <c r="S113" t="n">
+        <v>-3.016374160398677</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1.557711950970387</v>
+      </c>
+      <c r="U113" t="n">
+        <v>6.735382424861483</v>
+      </c>
+      <c r="V113" t="n">
+        <v>30.44618813260285</v>
+      </c>
+      <c r="W113" t="n">
+        <v>49.40028476800694</v>
+      </c>
+      <c r="X113" s="2" t="n">
         <v>40786</v>
       </c>
-      <c r="S113" s="2" t="n">
+      <c r="Y113" s="2" t="n">
         <v>41121</v>
       </c>
-      <c r="T113" s="2" t="n">
+      <c r="Z113" s="2" t="n">
         <v>41486</v>
       </c>
-      <c r="U113" s="2" t="n">
+      <c r="AA113" s="2" t="n">
         <v>40847</v>
       </c>
-      <c r="V113" s="2" t="n">
+      <c r="AB113" s="2" t="n">
         <v>41851</v>
       </c>
-      <c r="W113" s="2" t="n">
+      <c r="AC113" s="2" t="n">
         <v>40939</v>
       </c>
-      <c r="X113" t="inlineStr">
+      <c r="AD113" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y113" t="inlineStr">
+      <c r="AE113" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z113" t="inlineStr">
+      <c r="AF113" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -10253,35 +12299,53 @@
       <c r="Q114" t="n">
         <v>-64.39591364729759</v>
       </c>
-      <c r="R114" s="2" t="n">
+      <c r="R114" t="n">
+        <v>-5.388237669931435</v>
+      </c>
+      <c r="S114" t="n">
+        <v>-12.15065585926513</v>
+      </c>
+      <c r="T114" t="n">
+        <v>-8.496830667069124</v>
+      </c>
+      <c r="U114" t="n">
+        <v>12.11656441717791</v>
+      </c>
+      <c r="V114" t="n">
+        <v>-19.47578125</v>
+      </c>
+      <c r="W114" t="n">
+        <v>-31.43911930022948</v>
+      </c>
+      <c r="X114" s="2" t="n">
         <v>40359</v>
       </c>
-      <c r="S114" s="2" t="n">
+      <c r="Y114" s="2" t="n">
         <v>40359</v>
       </c>
-      <c r="T114" s="2" t="n">
+      <c r="Z114" s="2" t="n">
         <v>40359</v>
       </c>
-      <c r="U114" s="2" t="n">
+      <c r="AA114" s="2" t="n">
         <v>40359</v>
       </c>
-      <c r="V114" s="2" t="n">
+      <c r="AB114" s="2" t="n">
         <v>40359</v>
       </c>
-      <c r="W114" s="2" t="n">
+      <c r="AC114" s="2" t="n">
         <v>40359</v>
       </c>
-      <c r="X114" t="inlineStr">
+      <c r="AD114" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y114" t="inlineStr">
+      <c r="AE114" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z114" t="inlineStr">
+      <c r="AF114" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -10339,35 +12403,53 @@
       <c r="Q115" t="n">
         <v>162.1563375323343</v>
       </c>
-      <c r="R115" s="2" t="n">
+      <c r="R115" t="n">
+        <v>6.877783275606123</v>
+      </c>
+      <c r="S115" t="n">
+        <v>10.71979509270309</v>
+      </c>
+      <c r="T115" t="n">
+        <v>22.04014708307866</v>
+      </c>
+      <c r="U115" t="n">
+        <v>28.12915369017474</v>
+      </c>
+      <c r="V115" t="n">
+        <v>32.15744486810063</v>
+      </c>
+      <c r="W115" t="n">
+        <v>55.84208943349729</v>
+      </c>
+      <c r="X115" s="2" t="n">
         <v>40389</v>
       </c>
-      <c r="S115" s="2" t="n">
+      <c r="Y115" s="2" t="n">
         <v>40724</v>
       </c>
-      <c r="T115" s="2" t="n">
+      <c r="Z115" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="U115" s="2" t="n">
+      <c r="AA115" s="2" t="n">
         <v>40451</v>
       </c>
-      <c r="V115" s="2" t="n">
+      <c r="AB115" s="2" t="n">
         <v>41455</v>
       </c>
-      <c r="W115" s="2" t="n">
+      <c r="AC115" s="2" t="n">
         <v>40542</v>
       </c>
-      <c r="X115" t="inlineStr">
+      <c r="AD115" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y115" t="inlineStr">
+      <c r="AE115" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z115" t="inlineStr">
+      <c r="AF115" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -10425,35 +12507,53 @@
       <c r="Q116" t="n">
         <v>-40.35532994923858</v>
       </c>
-      <c r="R116" s="2" t="n">
+      <c r="R116" t="n">
+        <v>-5.388237669931435</v>
+      </c>
+      <c r="S116" t="n">
+        <v>-12.15065585926513</v>
+      </c>
+      <c r="T116" t="n">
+        <v>-8.496830667069124</v>
+      </c>
+      <c r="U116" t="n">
+        <v>12.11656441717791</v>
+      </c>
+      <c r="V116" t="n">
+        <v>-19.47578125</v>
+      </c>
+      <c r="W116" t="n">
+        <v>-31.43911930022948</v>
+      </c>
+      <c r="X116" s="2" t="n">
         <v>40359</v>
       </c>
-      <c r="S116" s="2" t="n">
+      <c r="Y116" s="2" t="n">
         <v>40359</v>
       </c>
-      <c r="T116" s="2" t="n">
+      <c r="Z116" s="2" t="n">
         <v>40359</v>
       </c>
-      <c r="U116" s="2" t="n">
+      <c r="AA116" s="2" t="n">
         <v>40359</v>
       </c>
-      <c r="V116" s="2" t="n">
+      <c r="AB116" s="2" t="n">
         <v>40359</v>
       </c>
-      <c r="W116" s="2" t="n">
+      <c r="AC116" s="2" t="n">
         <v>40359</v>
       </c>
-      <c r="X116" t="inlineStr">
+      <c r="AD116" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y116" t="inlineStr">
+      <c r="AE116" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z116" t="inlineStr">
+      <c r="AF116" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -10511,35 +12611,53 @@
       <c r="Q117" t="n">
         <v>59.2340425531915</v>
       </c>
-      <c r="R117" s="2" t="n">
+      <c r="R117" t="n">
+        <v>6.877783275606123</v>
+      </c>
+      <c r="S117" t="n">
+        <v>10.71979509270309</v>
+      </c>
+      <c r="T117" t="n">
+        <v>22.04014708307866</v>
+      </c>
+      <c r="U117" t="n">
+        <v>28.12915369017474</v>
+      </c>
+      <c r="V117" t="n">
+        <v>32.15744486810063</v>
+      </c>
+      <c r="W117" t="n">
+        <v>55.84208943349729</v>
+      </c>
+      <c r="X117" s="2" t="n">
         <v>40389</v>
       </c>
-      <c r="S117" s="2" t="n">
+      <c r="Y117" s="2" t="n">
         <v>40724</v>
       </c>
-      <c r="T117" s="2" t="n">
+      <c r="Z117" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="U117" s="2" t="n">
+      <c r="AA117" s="2" t="n">
         <v>40451</v>
       </c>
-      <c r="V117" s="2" t="n">
+      <c r="AB117" s="2" t="n">
         <v>41455</v>
       </c>
-      <c r="W117" s="2" t="n">
+      <c r="AC117" s="2" t="n">
         <v>40542</v>
       </c>
-      <c r="X117" t="inlineStr">
+      <c r="AD117" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y117" t="inlineStr">
+      <c r="AE117" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z117" t="inlineStr">
+      <c r="AF117" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -10597,35 +12715,53 @@
       <c r="Q118" t="n">
         <v>-15.2408250830886</v>
       </c>
-      <c r="R118" s="2" t="n">
+      <c r="R118" t="n">
+        <v>1.10646073118547</v>
+      </c>
+      <c r="S118" t="n">
+        <v>3.728300314830685</v>
+      </c>
+      <c r="T118" t="n">
+        <v>5.372677631204172</v>
+      </c>
+      <c r="U118" t="n">
+        <v>9.676517673366709</v>
+      </c>
+      <c r="V118" t="n">
+        <v>14.97234086005273</v>
+      </c>
+      <c r="W118" t="n">
+        <v>52.65981277559008</v>
+      </c>
+      <c r="X118" s="2" t="n">
         <v>38807</v>
       </c>
-      <c r="S118" s="2" t="n">
+      <c r="Y118" s="2" t="n">
         <v>38807</v>
       </c>
-      <c r="T118" s="2" t="n">
+      <c r="Z118" s="2" t="n">
         <v>38807</v>
       </c>
-      <c r="U118" s="2" t="n">
+      <c r="AA118" s="2" t="n">
         <v>38807</v>
       </c>
-      <c r="V118" s="2" t="n">
+      <c r="AB118" s="2" t="n">
         <v>38807</v>
       </c>
-      <c r="W118" s="2" t="n">
+      <c r="AC118" s="2" t="n">
         <v>38807</v>
       </c>
-      <c r="X118" t="inlineStr">
+      <c r="AD118" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y118" t="inlineStr">
+      <c r="AE118" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z118" t="inlineStr">
+      <c r="AF118" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -10683,35 +12819,53 @@
       <c r="Q119" t="n">
         <v>-83.73443983402488</v>
       </c>
-      <c r="R119" s="2" t="n">
+      <c r="R119" t="n">
+        <v>1.218692801371607</v>
+      </c>
+      <c r="S119" t="n">
+        <v>-1.902180208984954</v>
+      </c>
+      <c r="T119" t="n">
+        <v>3.167983441841785</v>
+      </c>
+      <c r="U119" t="n">
+        <v>9.733324065707466</v>
+      </c>
+      <c r="V119" t="n">
+        <v>2.152406107365455</v>
+      </c>
+      <c r="W119" t="n">
+        <v>-38.38032791949522</v>
+      </c>
+      <c r="X119" s="2" t="n">
         <v>38837</v>
       </c>
-      <c r="S119" s="2" t="n">
+      <c r="Y119" s="2" t="n">
         <v>39172</v>
       </c>
-      <c r="T119" s="2" t="n">
+      <c r="Z119" s="2" t="n">
         <v>39538</v>
       </c>
-      <c r="U119" s="2" t="n">
+      <c r="AA119" s="2" t="n">
         <v>38898</v>
       </c>
-      <c r="V119" s="2" t="n">
+      <c r="AB119" s="2" t="n">
         <v>39903</v>
       </c>
-      <c r="W119" s="2" t="n">
+      <c r="AC119" s="2" t="n">
         <v>38990</v>
       </c>
-      <c r="X119" t="inlineStr">
+      <c r="AD119" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y119" t="inlineStr">
+      <c r="AE119" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z119" t="inlineStr">
+      <c r="AF119" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -10769,35 +12923,53 @@
       <c r="Q120" t="n">
         <v>85.49382716049384</v>
       </c>
-      <c r="R120" s="2" t="n">
+      <c r="R120" t="n">
+        <v>1.10646073118547</v>
+      </c>
+      <c r="S120" t="n">
+        <v>3.728300314830685</v>
+      </c>
+      <c r="T120" t="n">
+        <v>5.372677631204172</v>
+      </c>
+      <c r="U120" t="n">
+        <v>9.676517673366709</v>
+      </c>
+      <c r="V120" t="n">
+        <v>14.97234086005273</v>
+      </c>
+      <c r="W120" t="n">
+        <v>52.65981277559008</v>
+      </c>
+      <c r="X120" s="2" t="n">
         <v>38807</v>
       </c>
-      <c r="S120" s="2" t="n">
+      <c r="Y120" s="2" t="n">
         <v>38807</v>
       </c>
-      <c r="T120" s="2" t="n">
+      <c r="Z120" s="2" t="n">
         <v>38807</v>
       </c>
-      <c r="U120" s="2" t="n">
+      <c r="AA120" s="2" t="n">
         <v>38807</v>
       </c>
-      <c r="V120" s="2" t="n">
+      <c r="AB120" s="2" t="n">
         <v>38807</v>
       </c>
-      <c r="W120" s="2" t="n">
+      <c r="AC120" s="2" t="n">
         <v>38807</v>
       </c>
-      <c r="X120" t="inlineStr">
+      <c r="AD120" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y120" t="inlineStr">
+      <c r="AE120" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z120" t="inlineStr">
+      <c r="AF120" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -10855,35 +13027,53 @@
       <c r="Q121" t="n">
         <v>-77.53743760399334</v>
       </c>
-      <c r="R121" s="2" t="n">
+      <c r="R121" t="n">
+        <v>1.218692801371607</v>
+      </c>
+      <c r="S121" t="n">
+        <v>-1.902180208984954</v>
+      </c>
+      <c r="T121" t="n">
+        <v>3.167983441841785</v>
+      </c>
+      <c r="U121" t="n">
+        <v>9.733324065707466</v>
+      </c>
+      <c r="V121" t="n">
+        <v>2.152406107365455</v>
+      </c>
+      <c r="W121" t="n">
+        <v>-38.38032791949522</v>
+      </c>
+      <c r="X121" s="2" t="n">
         <v>38837</v>
       </c>
-      <c r="S121" s="2" t="n">
+      <c r="Y121" s="2" t="n">
         <v>39172</v>
       </c>
-      <c r="T121" s="2" t="n">
+      <c r="Z121" s="2" t="n">
         <v>39538</v>
       </c>
-      <c r="U121" s="2" t="n">
+      <c r="AA121" s="2" t="n">
         <v>38898</v>
       </c>
-      <c r="V121" s="2" t="n">
+      <c r="AB121" s="2" t="n">
         <v>39903</v>
       </c>
-      <c r="W121" s="2" t="n">
+      <c r="AC121" s="2" t="n">
         <v>38990</v>
       </c>
-      <c r="X121" t="inlineStr">
+      <c r="AD121" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y121" t="inlineStr">
+      <c r="AE121" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z121" t="inlineStr">
+      <c r="AF121" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -10941,35 +13131,53 @@
       <c r="Q122" t="n">
         <v>413.384030418251</v>
       </c>
-      <c r="R122" s="2" t="n">
+      <c r="R122" t="n">
+        <v>3.765532172769029</v>
+      </c>
+      <c r="S122" t="n">
+        <v>4.148536315288758</v>
+      </c>
+      <c r="T122" t="n">
+        <v>7.739923095538995</v>
+      </c>
+      <c r="U122" t="n">
+        <v>22.68259674090766</v>
+      </c>
+      <c r="V122" t="n">
+        <v>42.42844345860172</v>
+      </c>
+      <c r="W122" t="n">
+        <v>64.36019657229116</v>
+      </c>
+      <c r="X122" s="2" t="n">
         <v>41882</v>
       </c>
-      <c r="S122" s="2" t="n">
+      <c r="Y122" s="2" t="n">
         <v>41882</v>
       </c>
-      <c r="T122" s="2" t="n">
+      <c r="Z122" s="2" t="n">
         <v>41882</v>
       </c>
-      <c r="U122" s="2" t="n">
+      <c r="AA122" s="2" t="n">
         <v>41882</v>
       </c>
-      <c r="V122" s="2" t="n">
+      <c r="AB122" s="2" t="n">
         <v>41882</v>
       </c>
-      <c r="W122" s="2" t="n">
+      <c r="AC122" s="2" t="n">
         <v>41882</v>
       </c>
-      <c r="X122" t="inlineStr">
+      <c r="AD122" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y122" t="inlineStr">
+      <c r="AE122" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z122" t="inlineStr">
+      <c r="AF122" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -11027,35 +13235,53 @@
       <c r="Q123" t="n">
         <v>-46.33387646274627</v>
       </c>
-      <c r="R123" s="2" t="n">
+      <c r="R123" t="n">
+        <v>-1.55138591473367</v>
+      </c>
+      <c r="S123" t="n">
+        <v>3.204101089663919</v>
+      </c>
+      <c r="T123" t="n">
+        <v>5.047994129891139</v>
+      </c>
+      <c r="U123" t="n">
+        <v>-1.556876662823135</v>
+      </c>
+      <c r="V123" t="n">
+        <v>8.364905134847778</v>
+      </c>
+      <c r="W123" t="n">
+        <v>23.37461377578781</v>
+      </c>
+      <c r="X123" s="2" t="n">
         <v>41912</v>
       </c>
-      <c r="S123" s="2" t="n">
+      <c r="Y123" s="2" t="n">
         <v>42247</v>
       </c>
-      <c r="T123" s="2" t="n">
+      <c r="Z123" s="2" t="n">
         <v>42613</v>
       </c>
-      <c r="U123" s="2" t="n">
+      <c r="AA123" s="2" t="n">
         <v>41973</v>
       </c>
-      <c r="V123" s="2" t="n">
+      <c r="AB123" s="2" t="n">
         <v>42978</v>
       </c>
-      <c r="W123" s="2" t="n">
+      <c r="AC123" s="2" t="n">
         <v>42063</v>
       </c>
-      <c r="X123" t="inlineStr">
+      <c r="AD123" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y123" t="inlineStr">
+      <c r="AE123" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z123" t="inlineStr">
+      <c r="AF123" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
@@ -11113,35 +13339,53 @@
       <c r="Q124" t="n">
         <v>124.8114630467571</v>
       </c>
-      <c r="R124" s="2" t="n">
+      <c r="R124" t="n">
+        <v>3.765532172769029</v>
+      </c>
+      <c r="S124" t="n">
+        <v>4.148536315288758</v>
+      </c>
+      <c r="T124" t="n">
+        <v>7.739923095538995</v>
+      </c>
+      <c r="U124" t="n">
+        <v>22.68259674090766</v>
+      </c>
+      <c r="V124" t="n">
+        <v>42.42844345860172</v>
+      </c>
+      <c r="W124" t="n">
+        <v>64.36019657229116</v>
+      </c>
+      <c r="X124" s="2" t="n">
         <v>41882</v>
       </c>
-      <c r="S124" s="2" t="n">
+      <c r="Y124" s="2" t="n">
         <v>41882</v>
       </c>
-      <c r="T124" s="2" t="n">
+      <c r="Z124" s="2" t="n">
         <v>41882</v>
       </c>
-      <c r="U124" s="2" t="n">
+      <c r="AA124" s="2" t="n">
         <v>41882</v>
       </c>
-      <c r="V124" s="2" t="n">
+      <c r="AB124" s="2" t="n">
         <v>41882</v>
       </c>
-      <c r="W124" s="2" t="n">
+      <c r="AC124" s="2" t="n">
         <v>41882</v>
       </c>
-      <c r="X124" t="inlineStr">
+      <c r="AD124" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y124" t="inlineStr">
+      <c r="AE124" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z124" t="inlineStr">
+      <c r="AF124" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -11199,35 +13443,53 @@
       <c r="Q125" t="n">
         <v>-32.30459577323046</v>
       </c>
-      <c r="R125" s="2" t="n">
+      <c r="R125" t="n">
+        <v>-1.55138591473367</v>
+      </c>
+      <c r="S125" t="n">
+        <v>3.204101089663919</v>
+      </c>
+      <c r="T125" t="n">
+        <v>5.047994129891139</v>
+      </c>
+      <c r="U125" t="n">
+        <v>-1.556876662823135</v>
+      </c>
+      <c r="V125" t="n">
+        <v>8.364905134847778</v>
+      </c>
+      <c r="W125" t="n">
+        <v>23.37461377578781</v>
+      </c>
+      <c r="X125" s="2" t="n">
         <v>41912</v>
       </c>
-      <c r="S125" s="2" t="n">
+      <c r="Y125" s="2" t="n">
         <v>42247</v>
       </c>
-      <c r="T125" s="2" t="n">
+      <c r="Z125" s="2" t="n">
         <v>42613</v>
       </c>
-      <c r="U125" s="2" t="n">
+      <c r="AA125" s="2" t="n">
         <v>41973</v>
       </c>
-      <c r="V125" s="2" t="n">
+      <c r="AB125" s="2" t="n">
         <v>42978</v>
       </c>
-      <c r="W125" s="2" t="n">
+      <c r="AC125" s="2" t="n">
         <v>42063</v>
       </c>
-      <c r="X125" t="inlineStr">
+      <c r="AD125" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y125" t="inlineStr">
+      <c r="AE125" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z125" t="inlineStr">
+      <c r="AF125" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -11285,35 +13547,53 @@
       <c r="Q126" t="n">
         <v>-30.66677131752524</v>
       </c>
-      <c r="R126" s="2" t="n">
+      <c r="R126" t="n">
+        <v>0.7821565652057475</v>
+      </c>
+      <c r="S126" t="n">
+        <v>-22.55821530230803</v>
+      </c>
+      <c r="T126" t="n">
+        <v>-29.43359375</v>
+      </c>
+      <c r="U126" t="n">
+        <v>-38.48579367457571</v>
+      </c>
+      <c r="V126" t="n">
+        <v>-36.31460198829585</v>
+      </c>
+      <c r="W126" t="n">
+        <v>-27.64101290565493</v>
+      </c>
+      <c r="X126" s="2" t="n">
         <v>39813</v>
       </c>
-      <c r="S126" s="2" t="n">
+      <c r="Y126" s="2" t="n">
         <v>39813</v>
       </c>
-      <c r="T126" s="2" t="n">
+      <c r="Z126" s="2" t="n">
         <v>39813</v>
       </c>
-      <c r="U126" s="2" t="n">
+      <c r="AA126" s="2" t="n">
         <v>39813</v>
       </c>
-      <c r="V126" s="2" t="n">
+      <c r="AB126" s="2" t="n">
         <v>39813</v>
       </c>
-      <c r="W126" s="2" t="n">
+      <c r="AC126" s="2" t="n">
         <v>39813</v>
       </c>
-      <c r="X126" t="inlineStr">
+      <c r="AD126" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y126" t="inlineStr">
+      <c r="AE126" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z126" t="inlineStr">
+      <c r="AF126" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -11371,35 +13651,53 @@
       <c r="Q127" t="n">
         <v>154.1516601189902</v>
       </c>
-      <c r="R127" s="2" t="n">
+      <c r="R127" t="n">
+        <v>-8.565734846388045</v>
+      </c>
+      <c r="S127" t="n">
+        <v>-11.66675892610019</v>
+      </c>
+      <c r="T127" t="n">
+        <v>1.77913091613618</v>
+      </c>
+      <c r="U127" t="n">
+        <v>23.45419319125379</v>
+      </c>
+      <c r="V127" t="n">
+        <v>39.23498477719347</v>
+      </c>
+      <c r="W127" t="n">
+        <v>39.23166343758648</v>
+      </c>
+      <c r="X127" s="2" t="n">
         <v>39844</v>
       </c>
-      <c r="S127" s="2" t="n">
+      <c r="Y127" s="2" t="n">
         <v>40178</v>
       </c>
-      <c r="T127" s="2" t="n">
+      <c r="Z127" s="2" t="n">
         <v>40543</v>
       </c>
-      <c r="U127" s="2" t="n">
+      <c r="AA127" s="2" t="n">
         <v>39903</v>
       </c>
-      <c r="V127" s="2" t="n">
+      <c r="AB127" s="2" t="n">
         <v>40908</v>
       </c>
-      <c r="W127" s="2" t="n">
+      <c r="AC127" s="2" t="n">
         <v>39994</v>
       </c>
-      <c r="X127" t="inlineStr">
+      <c r="AD127" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y127" t="inlineStr">
+      <c r="AE127" t="inlineStr">
         <is>
           <t>Closely Related</t>
         </is>
       </c>
-      <c r="Z127" t="inlineStr">
+      <c r="AF127" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -11457,35 +13755,53 @@
       <c r="Q128" t="n">
         <v>57.69226215144161</v>
       </c>
-      <c r="R128" s="2" t="n">
+      <c r="R128" t="n">
+        <v>0.7821565652057475</v>
+      </c>
+      <c r="S128" t="n">
+        <v>-22.55821530230803</v>
+      </c>
+      <c r="T128" t="n">
+        <v>-29.43359375</v>
+      </c>
+      <c r="U128" t="n">
+        <v>-38.48579367457571</v>
+      </c>
+      <c r="V128" t="n">
+        <v>-36.31460198829585</v>
+      </c>
+      <c r="W128" t="n">
+        <v>-27.64101290565493</v>
+      </c>
+      <c r="X128" s="2" t="n">
         <v>39813</v>
       </c>
-      <c r="S128" s="2" t="n">
+      <c r="Y128" s="2" t="n">
         <v>39813</v>
       </c>
-      <c r="T128" s="2" t="n">
+      <c r="Z128" s="2" t="n">
         <v>39813</v>
       </c>
-      <c r="U128" s="2" t="n">
+      <c r="AA128" s="2" t="n">
         <v>39813</v>
       </c>
-      <c r="V128" s="2" t="n">
+      <c r="AB128" s="2" t="n">
         <v>39813</v>
       </c>
-      <c r="W128" s="2" t="n">
+      <c r="AC128" s="2" t="n">
         <v>39813</v>
       </c>
-      <c r="X128" t="inlineStr">
+      <c r="AD128" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y128" t="inlineStr">
+      <c r="AE128" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z128" t="inlineStr">
+      <c r="AF128" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
@@ -11543,35 +13859,53 @@
       <c r="Q129" t="n">
         <v>-22.62593952500018</v>
       </c>
-      <c r="R129" s="2" t="n">
+      <c r="R129" t="n">
+        <v>-8.565734846388045</v>
+      </c>
+      <c r="S129" t="n">
+        <v>-11.66675892610019</v>
+      </c>
+      <c r="T129" t="n">
+        <v>1.77913091613618</v>
+      </c>
+      <c r="U129" t="n">
+        <v>23.45419319125379</v>
+      </c>
+      <c r="V129" t="n">
+        <v>39.23498477719347</v>
+      </c>
+      <c r="W129" t="n">
+        <v>39.23166343758648</v>
+      </c>
+      <c r="X129" s="2" t="n">
         <v>39844</v>
       </c>
-      <c r="S129" s="2" t="n">
+      <c r="Y129" s="2" t="n">
         <v>40178</v>
       </c>
-      <c r="T129" s="2" t="n">
+      <c r="Z129" s="2" t="n">
         <v>40543</v>
       </c>
-      <c r="U129" s="2" t="n">
+      <c r="AA129" s="2" t="n">
         <v>39903</v>
       </c>
-      <c r="V129" s="2" t="n">
+      <c r="AB129" s="2" t="n">
         <v>40908</v>
       </c>
-      <c r="W129" s="2" t="n">
+      <c r="AC129" s="2" t="n">
         <v>39994</v>
       </c>
-      <c r="X129" t="inlineStr">
+      <c r="AD129" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y129" t="inlineStr">
+      <c r="AE129" t="inlineStr">
         <is>
           <t>Less Closely Related</t>
         </is>
       </c>
-      <c r="Z129" t="inlineStr">
+      <c r="AF129" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
